--- a/documents/WBS양식.xlsx
+++ b/documents/WBS양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsdp\Desktop\github\education-web\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsdp\Desktop\github\project01\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C15FAB-DB4C-4DB2-9086-62E7443FC46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514EDB0-D755-4428-BCE0-9EE4C08F45B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,6 +540,30 @@
   </si>
   <si>
     <t>4.4.1 FAQ 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 회사소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 오시는 길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1 회사 위치 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR-045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR-046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR-047</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +572,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="179" formatCode="mm&quot;월&quot;dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -616,7 +640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,8 +695,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -973,6 +1003,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -980,7 +1121,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,222 +1140,186 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1224,40 +1329,211 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1575,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BU56"/>
+  <dimension ref="B1:BU59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1588,7 +1864,9 @@
     <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" style="1" customWidth="1"/>
-    <col min="6" max="11" width="8.75" style="4"/>
+    <col min="6" max="8" width="8.75" style="4"/>
+    <col min="9" max="10" width="8.75" style="83"/>
+    <col min="11" max="11" width="8.75" style="4"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
     <col min="13" max="72" width="4.75" style="4" customWidth="1"/>
     <col min="73" max="73" width="4.75" style="1" customWidth="1"/>
@@ -1597,131 +1875,131 @@
   <sheetData>
     <row r="1" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="84"/>
     </row>
     <row r="3" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="86">
+      <c r="C3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="81">
         <v>45137</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="86">
-        <v>45159</v>
-      </c>
-      <c r="E4" s="83"/>
+      <c r="D4" s="81">
+        <v>45160</v>
+      </c>
+      <c r="E4" s="73"/>
     </row>
     <row r="5" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="72">
         <v>45140</v>
       </c>
-      <c r="E6" s="83"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="84"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:73" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M10" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="80"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="67"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="67"/>
+      <c r="AK10" s="67"/>
+      <c r="AL10" s="67"/>
+      <c r="AM10" s="67"/>
+      <c r="AN10" s="68"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
@@ -1757,267 +2035,267 @@
       <c r="BU10" s="1"/>
     </row>
     <row r="11" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="17"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7" t="s">
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7" t="s">
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7" t="s">
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
     </row>
     <row r="12" spans="2:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="31" t="s">
+      <c r="Q12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="31" t="s">
+      <c r="R12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="31" t="s">
+      <c r="S12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="31" t="s">
+      <c r="T12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="31" t="s">
+      <c r="U12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="V12" s="31" t="s">
+      <c r="V12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="W12" s="31" t="s">
+      <c r="W12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="X12" s="31" t="s">
+      <c r="X12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Y12" s="31" t="s">
+      <c r="Y12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="31" t="s">
+      <c r="Z12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AA12" s="31" t="s">
+      <c r="AA12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AB12" s="31" t="s">
+      <c r="AB12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AC12" s="31" t="s">
+      <c r="AC12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AD12" s="31" t="s">
+      <c r="AD12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AE12" s="31" t="s">
+      <c r="AE12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AF12" s="31" t="s">
+      <c r="AF12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AG12" s="31" t="s">
+      <c r="AG12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AH12" s="31" t="s">
+      <c r="AH12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AI12" s="31" t="s">
+      <c r="AI12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AJ12" s="31" t="s">
+      <c r="AJ12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AK12" s="31" t="s">
+      <c r="AK12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AL12" s="31" t="s">
+      <c r="AL12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AM12" s="31" t="s">
+      <c r="AM12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AN12" s="31" t="s">
+      <c r="AN12" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58" t="str">
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="str">
         <f>IF(G13=1,"완료","진행중")</f>
         <v>완료</v>
       </c>
-      <c r="G13" s="59">
-        <v>1</v>
-      </c>
-      <c r="H13" s="58">
+      <c r="G13" s="44">
+        <v>1</v>
+      </c>
+      <c r="H13" s="43">
         <f>SUM(H14,H16,H18, H21, H23)</f>
         <v>11</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="88">
         <v>45137</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="88">
         <f>I13+H13</f>
         <v>45148</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
     </row>
     <row r="14" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="str">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="str">
         <f t="shared" ref="F14:F25" si="0">IF(G14=1,"완료","진행중")</f>
         <v>완료</v>
       </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
         <v>2</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="89">
         <v>45137</v>
       </c>
-      <c r="J14" s="12">
-        <f t="shared" ref="J14:J56" si="1">I14+H14</f>
+      <c r="J14" s="89">
+        <f t="shared" ref="J14:J59" si="1">I14+H14</f>
         <v>45139</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="11"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="60"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
@@ -2026,57 +2304,57 @@
       <c r="AN14" s="5"/>
     </row>
     <row r="15" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="10" t="str">
+      <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
         <v>2</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="89">
         <v>45137</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="89">
         <f t="shared" si="1"/>
         <v>45139</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="S15" s="112"/>
+      <c r="T15" s="11"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="11"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="60"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
@@ -2085,57 +2363,57 @@
       <c r="AN15" s="5"/>
     </row>
     <row r="16" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="str">
+      <c r="E16" s="7"/>
+      <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="89">
         <v>45139</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="89">
         <f t="shared" si="1"/>
         <v>45140</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="11"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="11"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="60"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
@@ -2144,57 +2422,57 @@
       <c r="AN16" s="5"/>
     </row>
     <row r="17" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="10" t="str">
+      <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12">
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="89">
         <v>45139</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="89">
         <f t="shared" si="1"/>
         <v>45140</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="11"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="60"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
@@ -2203,57 +2481,57 @@
       <c r="AN17" s="5"/>
     </row>
     <row r="18" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10" t="str">
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
         <v>4</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="89">
         <v>45140</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="89">
         <f t="shared" si="1"/>
         <v>45144</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="5"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="11"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="11"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="60"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
@@ -2262,57 +2540,57 @@
       <c r="AN18" s="5"/>
     </row>
     <row r="19" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="10" t="str">
+      <c r="F19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
         <v>4</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="89">
         <v>45140</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="89">
         <f t="shared" si="1"/>
         <v>45144</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="5"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="11"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="11"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="60"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
@@ -2321,57 +2599,57 @@
       <c r="AN19" s="5"/>
     </row>
     <row r="20" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="10" t="str">
+      <c r="F20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G20" s="11">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
         <v>4</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="89">
         <v>45140</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="89">
         <f t="shared" si="1"/>
         <v>45144</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="5"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="133"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="11"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="60"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
@@ -2380,57 +2658,57 @@
       <c r="AN20" s="5"/>
     </row>
     <row r="21" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10" t="str">
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="89">
         <v>45144</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="89">
         <f t="shared" si="1"/>
         <v>45145</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="8"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="134"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="11"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="60"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
@@ -2439,57 +2717,57 @@
       <c r="AN21" s="5"/>
     </row>
     <row r="22" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="10" t="str">
+      <c r="F22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="89">
         <v>45144</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="89">
         <f t="shared" si="1"/>
         <v>45145</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="134"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="11"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="60"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
@@ -2498,57 +2776,57 @@
       <c r="AN22" s="5"/>
     </row>
     <row r="23" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="10" t="str">
+      <c r="E23" s="6"/>
+      <c r="F23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G23" s="11">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
         <v>3</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="89">
         <v>45145</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="89">
         <f t="shared" si="1"/>
         <v>45148</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="11"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="60"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
@@ -2557,175 +2835,175 @@
       <c r="AN23" s="5"/>
     </row>
     <row r="24" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="20" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="21" t="str">
+      <c r="F24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G24" s="22">
-        <v>1</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
         <v>3</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="90">
         <v>45145</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="90">
         <f t="shared" si="1"/>
         <v>45148</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="23"/>
-      <c r="AL24" s="23"/>
-      <c r="AM24" s="23"/>
-      <c r="AN24" s="23"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
     </row>
     <row r="25" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63" t="str">
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G25" s="64">
-        <v>1</v>
-      </c>
-      <c r="H25" s="63">
+      <c r="G25" s="48">
+        <v>1</v>
+      </c>
+      <c r="H25" s="47">
         <v>2</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="91">
         <v>45148</v>
       </c>
-      <c r="J25" s="65">
+      <c r="J25" s="91">
         <f t="shared" si="1"/>
         <v>45150</v>
       </c>
-      <c r="K25" s="63" t="s">
+      <c r="K25" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="125"/>
+      <c r="AH25" s="117"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
     </row>
     <row r="26" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="str">
-        <f t="shared" ref="F26:F56" si="2">IF(G26=1,"완료","진행중")</f>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8" t="str">
+        <f t="shared" ref="F26:F59" si="2">IF(G26=1,"완료","진행중")</f>
         <v>완료</v>
       </c>
-      <c r="G26" s="11">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10">
-        <v>1</v>
-      </c>
-      <c r="I26" s="12">
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="89">
         <v>45148</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="89">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="11"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="11"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="60"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
@@ -2734,57 +3012,57 @@
       <c r="AN26" s="5"/>
     </row>
     <row r="27" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="10" t="str">
+      <c r="F27" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G27" s="11">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12">
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="89">
         <v>45148</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="89">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="11"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="60"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
@@ -2793,57 +3071,57 @@
       <c r="AN27" s="5"/>
     </row>
     <row r="28" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="10" t="str">
+      <c r="F28" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="9">
         <v>1</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="89">
         <v>45148</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="89">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="11"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="60"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
@@ -2852,57 +3130,57 @@
       <c r="AN28" s="5"/>
     </row>
     <row r="29" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="10" t="str">
+      <c r="F29" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G29" s="11">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="92">
         <v>45148</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="89">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="11"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="11"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="60"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
@@ -2911,57 +3189,57 @@
       <c r="AN29" s="5"/>
     </row>
     <row r="30" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10" t="str">
+      <c r="E30" s="6"/>
+      <c r="F30" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="9">
         <v>1</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="92">
         <v>45149</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="89">
         <f t="shared" si="1"/>
         <v>45150</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="11"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="11"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="60"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
@@ -2970,175 +3248,175 @@
       <c r="AN30" s="5"/>
     </row>
     <row r="31" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="37" t="str">
+      <c r="F31" s="26" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G31" s="38">
-        <v>1</v>
-      </c>
-      <c r="H31" s="39">
-        <v>1</v>
-      </c>
-      <c r="I31" s="40">
+      <c r="G31" s="27">
+        <v>1</v>
+      </c>
+      <c r="H31" s="28">
+        <v>1</v>
+      </c>
+      <c r="I31" s="93">
         <v>45149</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="94">
         <f t="shared" si="1"/>
         <v>45150</v>
       </c>
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="L31" s="36"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="126"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="118"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
     </row>
     <row r="32" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68" t="str">
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G32" s="69">
-        <v>1</v>
-      </c>
-      <c r="H32" s="51">
+      <c r="G32" s="52">
+        <v>1</v>
+      </c>
+      <c r="H32" s="37">
         <v>3</v>
       </c>
-      <c r="I32" s="70">
+      <c r="I32" s="95">
         <v>45150</v>
       </c>
-      <c r="J32" s="71">
+      <c r="J32" s="96">
         <f t="shared" si="1"/>
         <v>45153</v>
       </c>
-      <c r="K32" s="68" t="s">
+      <c r="K32" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="L32" s="32"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="136"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="104"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
     </row>
     <row r="33" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10" t="str">
+      <c r="E33" s="6"/>
+      <c r="F33" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="9">
         <v>1</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="92">
         <v>45150</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="89">
         <f t="shared" si="1"/>
         <v>45151</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="11"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="5"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="11"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="60"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
@@ -3147,57 +3425,57 @@
       <c r="AN33" s="5"/>
     </row>
     <row r="34" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="10" t="str">
+      <c r="F34" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="9">
         <v>1</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="92">
         <v>45150</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="89">
         <f t="shared" si="1"/>
         <v>45151</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="8"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
+      <c r="S34" s="112"/>
+      <c r="T34" s="11"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="5"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="137"/>
+      <c r="AA34" s="11"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="60"/>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
@@ -3206,57 +3484,57 @@
       <c r="AN34" s="5"/>
     </row>
     <row r="35" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="10" t="str">
+      <c r="F35" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="9">
         <v>1</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="92">
         <v>45151</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="89">
         <f t="shared" si="1"/>
         <v>45152</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
+      <c r="S35" s="112"/>
+      <c r="T35" s="11"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
+      <c r="Z35" s="137"/>
+      <c r="AA35" s="127"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="60"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
@@ -3265,57 +3543,57 @@
       <c r="AN35" s="5"/>
     </row>
     <row r="36" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="10" t="str">
+      <c r="E36" s="6"/>
+      <c r="F36" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="9">
         <v>1</v>
       </c>
       <c r="H36" s="5">
         <v>2</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="92">
         <v>45152</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="89">
         <f t="shared" si="1"/>
         <v>45154</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="S36" s="112"/>
+      <c r="T36" s="11"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="49"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="127"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="60"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
@@ -3324,175 +3602,175 @@
       <c r="AN36" s="5"/>
     </row>
     <row r="37" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="21" t="str">
+      <c r="F37" s="14" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G37" s="22">
-        <v>1</v>
-      </c>
-      <c r="H37" s="23">
+      <c r="G37" s="15">
+        <v>1</v>
+      </c>
+      <c r="H37" s="16">
         <v>2</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="97">
         <v>45152</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="90">
         <f t="shared" si="1"/>
         <v>45154</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="23"/>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="23"/>
-      <c r="AK37" s="23"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="23"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="128"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="16"/>
     </row>
     <row r="38" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74" t="str">
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G38" s="75">
-        <v>1</v>
-      </c>
-      <c r="H38" s="54">
+      <c r="G38" s="56">
+        <v>1</v>
+      </c>
+      <c r="H38" s="39">
         <v>5</v>
       </c>
-      <c r="I38" s="76">
+      <c r="I38" s="98">
         <v>45154</v>
       </c>
-      <c r="J38" s="77">
+      <c r="J38" s="99">
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K38" s="74" t="s">
+      <c r="K38" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54"/>
-      <c r="AG38" s="54"/>
-      <c r="AH38" s="27"/>
-      <c r="AI38" s="27"/>
-      <c r="AJ38" s="27"/>
-      <c r="AK38" s="27"/>
-      <c r="AL38" s="27"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="27"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="114"/>
+      <c r="T38" s="124"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="125"/>
+      <c r="AA38" s="124"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="129"/>
+      <c r="AH38" s="117"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="18"/>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="18"/>
     </row>
     <row r="39" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="10" t="str">
+      <c r="E39" s="6"/>
+      <c r="F39" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="9">
         <v>1</v>
       </c>
       <c r="H39" s="5">
         <v>3</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="92">
         <v>45154</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="89">
         <f t="shared" si="1"/>
         <v>45157</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L39" s="8"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
+      <c r="S39" s="112"/>
+      <c r="T39" s="11"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="11"/>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="60"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5"/>
@@ -3501,57 +3779,57 @@
       <c r="AN39" s="5"/>
     </row>
     <row r="40" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="10" t="str">
+      <c r="F40" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="9">
         <v>1</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="92">
         <v>45154</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="89">
         <f t="shared" si="1"/>
         <v>45155</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L40" s="8"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="11"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
+      <c r="Z40" s="58"/>
+      <c r="AA40" s="11"/>
       <c r="AB40" s="5"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
+      <c r="AG40" s="58"/>
+      <c r="AH40" s="60"/>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5"/>
@@ -3560,57 +3838,57 @@
       <c r="AN40" s="5"/>
     </row>
     <row r="41" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="10" t="str">
+      <c r="F41" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="9">
         <v>1</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="92">
         <v>45154</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="89">
         <f t="shared" si="1"/>
         <v>45155</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="11"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="11"/>
       <c r="AB41" s="5"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
+      <c r="AG41" s="58"/>
+      <c r="AH41" s="60"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="5"/>
@@ -3619,57 +3897,57 @@
       <c r="AN41" s="5"/>
     </row>
     <row r="42" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="10" t="str">
+      <c r="F42" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="9">
         <v>1</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="92">
         <v>45154</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="89">
         <f t="shared" si="1"/>
         <v>45155</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="11"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="11"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="60"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
@@ -3678,57 +3956,57 @@
       <c r="AN42" s="5"/>
     </row>
     <row r="43" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="10" t="str">
+      <c r="F43" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="9">
         <v>1</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="92">
         <v>45154</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="89">
         <f t="shared" si="1"/>
         <v>45155</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="8"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
+      <c r="S43" s="112"/>
+      <c r="T43" s="11"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="11"/>
       <c r="AB43" s="5"/>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="52"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="60"/>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5"/>
@@ -3737,57 +4015,57 @@
       <c r="AN43" s="5"/>
     </row>
     <row r="44" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="10" t="str">
+      <c r="F44" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="9">
         <v>1</v>
       </c>
       <c r="H44" s="5">
         <v>2</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="92">
         <v>45155</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="89">
         <f t="shared" si="1"/>
         <v>45157</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
+      <c r="S44" s="112"/>
+      <c r="T44" s="11"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="11"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="60"/>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
       <c r="AK44" s="5"/>
@@ -3796,57 +4074,57 @@
       <c r="AN44" s="5"/>
     </row>
     <row r="45" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="10" t="str">
+      <c r="E45" s="6"/>
+      <c r="F45" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="9">
         <v>1</v>
       </c>
       <c r="H45" s="5">
         <v>2</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="92">
         <v>45154</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="89">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L45" s="8"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
+      <c r="S45" s="112"/>
+      <c r="T45" s="11"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="11"/>
       <c r="AB45" s="5"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="52"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="38"/>
+      <c r="AE45" s="38"/>
       <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="60"/>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
       <c r="AK45" s="5"/>
@@ -3855,57 +4133,57 @@
       <c r="AN45" s="5"/>
     </row>
     <row r="46" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="10" t="str">
+      <c r="F46" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="9">
         <v>1</v>
       </c>
       <c r="H46" s="5">
         <v>2</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="92">
         <v>45154</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="89">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L46" s="8"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
+      <c r="S46" s="112"/>
+      <c r="T46" s="11"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="11"/>
       <c r="AB46" s="5"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="52"/>
-      <c r="AE46" s="52"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="38"/>
       <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="60"/>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
       <c r="AK46" s="5"/>
@@ -3914,57 +4192,57 @@
       <c r="AN46" s="5"/>
     </row>
     <row r="47" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="10" t="str">
+      <c r="F47" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="9">
         <v>1</v>
       </c>
       <c r="H47" s="5">
         <v>2</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="92">
         <v>45154</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="89">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L47" s="8"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
+      <c r="S47" s="112"/>
+      <c r="T47" s="11"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="11"/>
       <c r="AB47" s="5"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AE47" s="38"/>
       <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="60"/>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
       <c r="AK47" s="5"/>
@@ -3973,57 +4251,57 @@
       <c r="AN47" s="5"/>
     </row>
     <row r="48" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="10" t="str">
+      <c r="F48" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="9">
         <v>1</v>
       </c>
       <c r="H48" s="5">
         <v>2</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="92">
         <v>45154</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="89">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="8"/>
+      <c r="L48" s="6"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
+      <c r="S48" s="112"/>
+      <c r="T48" s="11"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="11"/>
       <c r="AB48" s="5"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
       <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
+      <c r="AG48" s="58"/>
+      <c r="AH48" s="60"/>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
       <c r="AK48" s="5"/>
@@ -4032,57 +4310,57 @@
       <c r="AN48" s="5"/>
     </row>
     <row r="49" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="10" t="str">
+      <c r="F49" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="9">
         <v>1</v>
       </c>
       <c r="H49" s="5">
         <v>2</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="92">
         <v>45154</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="89">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="8"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
+      <c r="S49" s="112"/>
+      <c r="T49" s="11"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="11"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
+      <c r="AC49" s="38"/>
+      <c r="AD49" s="38"/>
+      <c r="AE49" s="38"/>
       <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="60"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
       <c r="AK49" s="5"/>
@@ -4091,57 +4369,57 @@
       <c r="AN49" s="5"/>
     </row>
     <row r="50" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="10" t="str">
+      <c r="E50" s="6"/>
+      <c r="F50" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="9">
         <v>1</v>
       </c>
       <c r="H50" s="5">
         <v>2</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="92">
         <v>45156</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="89">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L50" s="8"/>
+      <c r="L50" s="6"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
+      <c r="S50" s="112"/>
+      <c r="T50" s="11"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
+      <c r="Z50" s="58"/>
+      <c r="AA50" s="11"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="5"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="130"/>
+      <c r="AH50" s="60"/>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
       <c r="AK50" s="5"/>
@@ -4150,57 +4428,57 @@
       <c r="AN50" s="5"/>
     </row>
     <row r="51" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8" t="s">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="10" t="str">
+      <c r="F51" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="9">
         <v>1</v>
       </c>
       <c r="H51" s="5">
         <v>2</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="92">
         <v>45156</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="89">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L51" s="8"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
+      <c r="S51" s="112"/>
+      <c r="T51" s="11"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
+      <c r="Z51" s="58"/>
+      <c r="AA51" s="11"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
-      <c r="AE51" s="52"/>
-      <c r="AF51" s="52"/>
-      <c r="AG51" s="52"/>
-      <c r="AH51" s="5"/>
+      <c r="AE51" s="38"/>
+      <c r="AF51" s="38"/>
+      <c r="AG51" s="130"/>
+      <c r="AH51" s="60"/>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
       <c r="AK51" s="5"/>
@@ -4209,57 +4487,57 @@
       <c r="AN51" s="5"/>
     </row>
     <row r="52" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F52" s="10" t="str">
+      <c r="F52" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="9">
         <v>1</v>
       </c>
       <c r="H52" s="5">
         <v>2</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="92">
         <v>45156</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="89">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L52" s="8"/>
+      <c r="L52" s="6"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
+      <c r="S52" s="112"/>
+      <c r="T52" s="11"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
+      <c r="Z52" s="58"/>
+      <c r="AA52" s="11"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
-      <c r="AH52" s="5"/>
+      <c r="AE52" s="38"/>
+      <c r="AF52" s="38"/>
+      <c r="AG52" s="130"/>
+      <c r="AH52" s="60"/>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
       <c r="AK52" s="5"/>
@@ -4268,57 +4546,57 @@
       <c r="AN52" s="5"/>
     </row>
     <row r="53" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8" t="s">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="10" t="str">
+      <c r="F53" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="9">
         <v>1</v>
       </c>
       <c r="H53" s="5">
         <v>2</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="92">
         <v>45156</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="89">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L53" s="8"/>
+      <c r="L53" s="6"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
+      <c r="S53" s="112"/>
+      <c r="T53" s="11"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
+      <c r="Z53" s="58"/>
+      <c r="AA53" s="11"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
-      <c r="AE53" s="52"/>
-      <c r="AF53" s="52"/>
-      <c r="AG53" s="52"/>
-      <c r="AH53" s="5"/>
+      <c r="AE53" s="38"/>
+      <c r="AF53" s="38"/>
+      <c r="AG53" s="130"/>
+      <c r="AH53" s="60"/>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
       <c r="AK53" s="5"/>
@@ -4327,57 +4605,57 @@
       <c r="AN53" s="5"/>
     </row>
     <row r="54" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8" t="s">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="10" t="str">
+      <c r="F54" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="9">
         <v>1</v>
       </c>
       <c r="H54" s="5">
         <v>2</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="92">
         <v>45156</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="89">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L54" s="8"/>
+      <c r="L54" s="6"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
+      <c r="S54" s="112"/>
+      <c r="T54" s="11"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
+      <c r="Z54" s="58"/>
+      <c r="AA54" s="11"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
-      <c r="AE54" s="52"/>
-      <c r="AF54" s="52"/>
-      <c r="AG54" s="52"/>
-      <c r="AH54" s="5"/>
+      <c r="AE54" s="38"/>
+      <c r="AF54" s="38"/>
+      <c r="AG54" s="130"/>
+      <c r="AH54" s="60"/>
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
       <c r="AK54" s="5"/>
@@ -4386,57 +4664,57 @@
       <c r="AN54" s="5"/>
     </row>
     <row r="55" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="10" t="str">
+      <c r="E55" s="6"/>
+      <c r="F55" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="9">
         <v>1</v>
       </c>
       <c r="H55" s="5">
         <v>1</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="92">
         <v>45158</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="89">
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L55" s="8"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
+      <c r="S55" s="112"/>
+      <c r="T55" s="11"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
+      <c r="Z55" s="58"/>
+      <c r="AA55" s="11"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
-      <c r="AG55" s="52"/>
-      <c r="AH55" s="52"/>
+      <c r="AG55" s="130"/>
+      <c r="AH55" s="119"/>
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
@@ -4445,71 +4723,249 @@
       <c r="AN55" s="5"/>
     </row>
     <row r="56" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20" t="s">
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F56" s="21" t="str">
+      <c r="F56" s="26" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G56" s="22">
-        <v>1</v>
-      </c>
-      <c r="H56" s="23">
-        <v>1</v>
-      </c>
-      <c r="I56" s="24">
+      <c r="G56" s="27">
+        <v>1</v>
+      </c>
+      <c r="H56" s="28">
+        <v>1</v>
+      </c>
+      <c r="I56" s="93">
         <v>45158</v>
       </c>
-      <c r="J56" s="25">
+      <c r="J56" s="94">
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K56" s="21" t="s">
+      <c r="K56" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="L56" s="20"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="23"/>
-      <c r="AD56" s="23"/>
-      <c r="AE56" s="23"/>
-      <c r="AF56" s="23"/>
-      <c r="AG56" s="53"/>
-      <c r="AH56" s="53"/>
-      <c r="AI56" s="23"/>
-      <c r="AJ56" s="23"/>
-      <c r="AK56" s="23"/>
-      <c r="AL56" s="23"/>
-      <c r="AM56" s="23"/>
-      <c r="AN56" s="23"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="115"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="126"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="131"/>
+      <c r="AH56" s="120"/>
+      <c r="AI56" s="28"/>
+      <c r="AJ56" s="28"/>
+      <c r="AK56" s="28"/>
+      <c r="AL56" s="28"/>
+      <c r="AM56" s="28"/>
+      <c r="AN56" s="28"/>
+    </row>
+    <row r="57" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="103" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G57" s="109">
+        <v>1</v>
+      </c>
+      <c r="H57" s="103">
+        <v>1</v>
+      </c>
+      <c r="I57" s="110">
+        <v>45159</v>
+      </c>
+      <c r="J57" s="110">
+        <f t="shared" si="1"/>
+        <v>45160</v>
+      </c>
+      <c r="K57" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="21"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="111"/>
+      <c r="T57" s="102"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="104"/>
+      <c r="AA57" s="102"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="104"/>
+      <c r="AH57" s="121"/>
+      <c r="AI57" s="103"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="22"/>
+      <c r="AM57" s="22"/>
+      <c r="AN57" s="104"/>
+    </row>
+    <row r="58" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G58" s="100">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="92">
+        <v>45159</v>
+      </c>
+      <c r="J58" s="92">
+        <f t="shared" si="1"/>
+        <v>45160</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L58" s="6"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="112"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="58"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="58"/>
+      <c r="AH58" s="122"/>
+      <c r="AI58" s="101"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="58"/>
+    </row>
+    <row r="59" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B59" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G59" s="105">
+        <v>1</v>
+      </c>
+      <c r="H59" s="16">
+        <v>1</v>
+      </c>
+      <c r="I59" s="97">
+        <v>45159</v>
+      </c>
+      <c r="J59" s="97">
+        <f t="shared" si="1"/>
+        <v>45160</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" s="13"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="113"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="16"/>
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="16"/>
+      <c r="AF59" s="16"/>
+      <c r="AG59" s="59"/>
+      <c r="AH59" s="123"/>
+      <c r="AI59" s="106"/>
+      <c r="AJ59" s="16"/>
+      <c r="AK59" s="16"/>
+      <c r="AL59" s="16"/>
+      <c r="AM59" s="16"/>
+      <c r="AN59" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="I10:I12"/>
@@ -4520,12 +4976,11 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="M10:AN10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WBS양식.xlsx
+++ b/documents/WBS양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsdp\Desktop\github\project01\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514EDB0-D755-4428-BCE0-9EE4C08F45B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E88E09-C58A-4691-B4CB-331D6C383A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="153">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,6 +564,22 @@
   </si>
   <si>
     <t>FUR-047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 관리자페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1 회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2 고객지원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3 커뮤니티 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +588,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="mm&quot;월&quot;dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1317,6 +1333,213 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1328,213 +1551,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1851,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BU59"/>
+  <dimension ref="B1:BU63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1865,7 +1881,7 @@
     <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" style="1" customWidth="1"/>
     <col min="6" max="8" width="8.75" style="4"/>
-    <col min="9" max="10" width="8.75" style="83"/>
+    <col min="9" max="10" width="8.75" style="65"/>
     <col min="11" max="11" width="8.75" style="4"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
     <col min="13" max="72" width="4.75" style="4" customWidth="1"/>
@@ -1878,128 +1894,128 @@
       <c r="C2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="80"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
-      <c r="I2" s="84"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="122">
         <v>45137</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="123"/>
     </row>
     <row r="4" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="122">
         <v>45160</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="123"/>
     </row>
     <row r="5" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="123"/>
     </row>
     <row r="6" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="131">
         <v>45140</v>
       </c>
-      <c r="E6" s="73"/>
+      <c r="E6" s="123"/>
     </row>
     <row r="7" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:73" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="85" t="s">
+      <c r="I10" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="85" t="s">
+      <c r="J10" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="125" t="s">
         <v>48</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="66" t="s">
+      <c r="M10" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="67"/>
-      <c r="AN10" s="68"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="136"/>
+      <c r="X10" s="136"/>
+      <c r="Y10" s="136"/>
+      <c r="Z10" s="136"/>
+      <c r="AA10" s="136"/>
+      <c r="AB10" s="136"/>
+      <c r="AC10" s="136"/>
+      <c r="AD10" s="136"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="136"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="136"/>
+      <c r="AJ10" s="136"/>
+      <c r="AK10" s="136"/>
+      <c r="AL10" s="136"/>
+      <c r="AM10" s="136"/>
+      <c r="AN10" s="137"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
@@ -2035,67 +2051,67 @@
       <c r="BU10" s="1"/>
     </row>
     <row r="11" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="77"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="70"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="126"/>
       <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="65" t="s">
+      <c r="M11" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65" t="s">
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65" t="s">
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+      <c r="AA11" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65" t="s">
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="134"/>
+      <c r="AD11" s="134"/>
+      <c r="AE11" s="134"/>
+      <c r="AF11" s="134"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
+      <c r="AI11" s="134"/>
+      <c r="AJ11" s="134"/>
+      <c r="AK11" s="134"/>
+      <c r="AL11" s="134"/>
+      <c r="AM11" s="134"/>
+      <c r="AN11" s="134"/>
     </row>
     <row r="12" spans="2:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="78"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="71"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="127"/>
       <c r="L12" s="19" t="s">
         <v>14</v>
       </c>
@@ -2204,10 +2220,10 @@
         <f>SUM(H14,H16,H18, H21, H23)</f>
         <v>11</v>
       </c>
-      <c r="I13" s="88">
+      <c r="I13" s="67">
         <v>45137</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="67">
         <f>I13+H13</f>
         <v>45148</v>
       </c>
@@ -2221,22 +2237,22 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="132"/>
+      <c r="S13" s="111"/>
       <c r="T13" s="40"/>
       <c r="U13" s="31"/>
       <c r="V13" s="31"/>
       <c r="W13" s="31"/>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="102"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="81"/>
       <c r="AB13" s="22"/>
       <c r="AC13" s="22"/>
       <c r="AD13" s="22"/>
       <c r="AE13" s="22"/>
       <c r="AF13" s="22"/>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="116"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="95"/>
       <c r="AI13" s="22"/>
       <c r="AJ13" s="22"/>
       <c r="AK13" s="22"/>
@@ -2263,11 +2279,11 @@
       <c r="H14" s="8">
         <v>2</v>
       </c>
-      <c r="I14" s="89">
+      <c r="I14" s="68">
         <v>45137</v>
       </c>
-      <c r="J14" s="89">
-        <f t="shared" ref="J14:J59" si="1">I14+H14</f>
+      <c r="J14" s="68">
+        <f t="shared" ref="J14:J63" si="1">I14+H14</f>
         <v>45139</v>
       </c>
       <c r="K14" s="8" t="s">
@@ -2280,7 +2296,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="112"/>
+      <c r="S14" s="91"/>
       <c r="T14" s="11"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -2322,10 +2338,10 @@
       <c r="H15" s="8">
         <v>2</v>
       </c>
-      <c r="I15" s="89">
+      <c r="I15" s="68">
         <v>45137</v>
       </c>
-      <c r="J15" s="89">
+      <c r="J15" s="68">
         <f t="shared" si="1"/>
         <v>45139</v>
       </c>
@@ -2339,7 +2355,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="112"/>
+      <c r="S15" s="91"/>
       <c r="T15" s="11"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -2381,10 +2397,10 @@
       <c r="H16" s="8">
         <v>1</v>
       </c>
-      <c r="I16" s="89">
+      <c r="I16" s="68">
         <v>45139</v>
       </c>
-      <c r="J16" s="89">
+      <c r="J16" s="68">
         <f t="shared" si="1"/>
         <v>45140</v>
       </c>
@@ -2398,7 +2414,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="112"/>
+      <c r="S16" s="91"/>
       <c r="T16" s="11"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -2440,10 +2456,10 @@
       <c r="H17" s="8">
         <v>1</v>
       </c>
-      <c r="I17" s="89">
+      <c r="I17" s="68">
         <v>45139</v>
       </c>
-      <c r="J17" s="89">
+      <c r="J17" s="68">
         <f t="shared" si="1"/>
         <v>45140</v>
       </c>
@@ -2457,7 +2473,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="112"/>
+      <c r="S17" s="91"/>
       <c r="T17" s="11"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -2499,10 +2515,10 @@
       <c r="H18" s="8">
         <v>4</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="68">
         <v>45140</v>
       </c>
-      <c r="J18" s="89">
+      <c r="J18" s="68">
         <f t="shared" si="1"/>
         <v>45144</v>
       </c>
@@ -2516,7 +2532,7 @@
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
-      <c r="S18" s="133"/>
+      <c r="S18" s="112"/>
       <c r="T18" s="11"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -2558,10 +2574,10 @@
       <c r="H19" s="8">
         <v>4</v>
       </c>
-      <c r="I19" s="89">
+      <c r="I19" s="68">
         <v>45140</v>
       </c>
-      <c r="J19" s="89">
+      <c r="J19" s="68">
         <f t="shared" si="1"/>
         <v>45144</v>
       </c>
@@ -2575,7 +2591,7 @@
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="30"/>
-      <c r="S19" s="133"/>
+      <c r="S19" s="112"/>
       <c r="T19" s="11"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -2617,10 +2633,10 @@
       <c r="H20" s="8">
         <v>4</v>
       </c>
-      <c r="I20" s="89">
+      <c r="I20" s="68">
         <v>45140</v>
       </c>
-      <c r="J20" s="89">
+      <c r="J20" s="68">
         <f t="shared" si="1"/>
         <v>45144</v>
       </c>
@@ -2634,7 +2650,7 @@
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
       <c r="R20" s="30"/>
-      <c r="S20" s="133"/>
+      <c r="S20" s="112"/>
       <c r="T20" s="11"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
@@ -2676,10 +2692,10 @@
       <c r="H21" s="8">
         <v>1</v>
       </c>
-      <c r="I21" s="89">
+      <c r="I21" s="68">
         <v>45144</v>
       </c>
-      <c r="J21" s="89">
+      <c r="J21" s="68">
         <f t="shared" si="1"/>
         <v>45145</v>
       </c>
@@ -2693,8 +2709,8 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="134"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="113"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
@@ -2735,10 +2751,10 @@
       <c r="H22" s="8">
         <v>1</v>
       </c>
-      <c r="I22" s="89">
+      <c r="I22" s="68">
         <v>45144</v>
       </c>
-      <c r="J22" s="89">
+      <c r="J22" s="68">
         <f t="shared" si="1"/>
         <v>45145</v>
       </c>
@@ -2752,8 +2768,8 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="134"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="113"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
@@ -2794,10 +2810,10 @@
       <c r="H23" s="8">
         <v>3</v>
       </c>
-      <c r="I23" s="89">
+      <c r="I23" s="68">
         <v>45145</v>
       </c>
-      <c r="J23" s="89">
+      <c r="J23" s="68">
         <f t="shared" si="1"/>
         <v>45148</v>
       </c>
@@ -2811,8 +2827,8 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="134"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="113"/>
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
       <c r="W23" s="30"/>
@@ -2853,10 +2869,10 @@
       <c r="H24" s="14">
         <v>3</v>
       </c>
-      <c r="I24" s="90">
+      <c r="I24" s="69">
         <v>45145</v>
       </c>
-      <c r="J24" s="90">
+      <c r="J24" s="69">
         <f t="shared" si="1"/>
         <v>45148</v>
       </c>
@@ -2870,8 +2886,8 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="135"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="114"/>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
       <c r="W24" s="29"/>
@@ -2912,10 +2928,10 @@
       <c r="H25" s="47">
         <v>2</v>
       </c>
-      <c r="I25" s="91">
+      <c r="I25" s="70">
         <v>45148</v>
       </c>
-      <c r="J25" s="91">
+      <c r="J25" s="70">
         <f t="shared" si="1"/>
         <v>45150</v>
       </c>
@@ -2929,22 +2945,22 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="124"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="103"/>
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
       <c r="W25" s="32"/>
       <c r="X25" s="32"/>
       <c r="Y25" s="32"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="124"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="103"/>
       <c r="AB25" s="18"/>
       <c r="AC25" s="18"/>
       <c r="AD25" s="18"/>
       <c r="AE25" s="18"/>
       <c r="AF25" s="18"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="117"/>
+      <c r="AG25" s="104"/>
+      <c r="AH25" s="96"/>
       <c r="AI25" s="18"/>
       <c r="AJ25" s="18"/>
       <c r="AK25" s="18"/>
@@ -2962,7 +2978,7 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="8" t="str">
-        <f t="shared" ref="F26:F59" si="2">IF(G26=1,"완료","진행중")</f>
+        <f t="shared" ref="F26:F63" si="2">IF(G26=1,"완료","진행중")</f>
         <v>완료</v>
       </c>
       <c r="G26" s="9">
@@ -2971,10 +2987,10 @@
       <c r="H26" s="8">
         <v>1</v>
       </c>
-      <c r="I26" s="89">
+      <c r="I26" s="68">
         <v>45148</v>
       </c>
-      <c r="J26" s="89">
+      <c r="J26" s="68">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
@@ -2988,7 +3004,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="112"/>
+      <c r="S26" s="91"/>
       <c r="T26" s="11"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
@@ -3030,10 +3046,10 @@
       <c r="H27" s="8">
         <v>1</v>
       </c>
-      <c r="I27" s="89">
+      <c r="I27" s="68">
         <v>45148</v>
       </c>
-      <c r="J27" s="89">
+      <c r="J27" s="68">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
@@ -3047,7 +3063,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="112"/>
+      <c r="S27" s="91"/>
       <c r="T27" s="11"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
@@ -3089,10 +3105,10 @@
       <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="I28" s="89">
+      <c r="I28" s="68">
         <v>45148</v>
       </c>
-      <c r="J28" s="89">
+      <c r="J28" s="68">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
@@ -3106,7 +3122,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="112"/>
+      <c r="S28" s="91"/>
       <c r="T28" s="11"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
@@ -3148,10 +3164,10 @@
       <c r="H29" s="8">
         <v>1</v>
       </c>
-      <c r="I29" s="92">
+      <c r="I29" s="71">
         <v>45148</v>
       </c>
-      <c r="J29" s="89">
+      <c r="J29" s="68">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
@@ -3165,7 +3181,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-      <c r="S29" s="112"/>
+      <c r="S29" s="91"/>
       <c r="T29" s="11"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
@@ -3207,10 +3223,10 @@
       <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="I30" s="92">
+      <c r="I30" s="71">
         <v>45149</v>
       </c>
-      <c r="J30" s="89">
+      <c r="J30" s="68">
         <f t="shared" si="1"/>
         <v>45150</v>
       </c>
@@ -3224,7 +3240,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="112"/>
+      <c r="S30" s="91"/>
       <c r="T30" s="11"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -3247,17 +3263,15 @@
       <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
     </row>
-    <row r="31" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="24" t="s">
-        <v>73</v>
-      </c>
+    <row r="31" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="24"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25" t="s">
         <v>125</v>
       </c>
       <c r="F31" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F31" si="3">IF(G31=1,"완료","진행중")</f>
         <v>완료</v>
       </c>
       <c r="G31" s="27">
@@ -3266,11 +3280,11 @@
       <c r="H31" s="28">
         <v>1</v>
       </c>
-      <c r="I31" s="93">
+      <c r="I31" s="72">
         <v>45149</v>
       </c>
-      <c r="J31" s="94">
-        <f t="shared" si="1"/>
+      <c r="J31" s="73">
+        <f t="shared" ref="J31:J34" si="4">I31+H31</f>
         <v>45150</v>
       </c>
       <c r="K31" s="26" t="s">
@@ -3283,22 +3297,22 @@
       <c r="P31" s="28"/>
       <c r="Q31" s="28"/>
       <c r="R31" s="28"/>
-      <c r="S31" s="115"/>
+      <c r="S31" s="94"/>
       <c r="T31" s="24"/>
       <c r="U31" s="28"/>
       <c r="V31" s="28"/>
       <c r="W31" s="28"/>
       <c r="X31" s="34"/>
       <c r="Y31" s="34"/>
-      <c r="Z31" s="126"/>
+      <c r="Z31" s="105"/>
       <c r="AA31" s="24"/>
       <c r="AB31" s="28"/>
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="28"/>
       <c r="AF31" s="28"/>
-      <c r="AG31" s="126"/>
-      <c r="AH31" s="118"/>
+      <c r="AG31" s="105"/>
+      <c r="AH31" s="97"/>
       <c r="AI31" s="28"/>
       <c r="AJ31" s="28"/>
       <c r="AK31" s="28"/>
@@ -3307,427 +3321,421 @@
       <c r="AN31" s="28"/>
     </row>
     <row r="32" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51" t="str">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G32" s="52">
-        <v>1</v>
-      </c>
-      <c r="H32" s="37">
+      <c r="G32" s="27">
+        <v>1</v>
+      </c>
+      <c r="H32" s="28">
+        <v>1</v>
+      </c>
+      <c r="I32" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J32" s="73">
+        <f t="shared" si="4"/>
+        <v>45150</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="25"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="105"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="105"/>
+      <c r="AH32" s="97"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+    </row>
+    <row r="33" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G33" s="27">
+        <v>1</v>
+      </c>
+      <c r="H33" s="28">
+        <v>1</v>
+      </c>
+      <c r="I33" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J33" s="73">
+        <f t="shared" si="4"/>
+        <v>45150</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="25"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="105"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="105"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+    </row>
+    <row r="34" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G34" s="27">
+        <v>1</v>
+      </c>
+      <c r="H34" s="28">
+        <v>1</v>
+      </c>
+      <c r="I34" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J34" s="73">
+        <f t="shared" si="4"/>
+        <v>45150</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="25"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="105"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="105"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+    </row>
+    <row r="35" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G35" s="27">
+        <v>1</v>
+      </c>
+      <c r="H35" s="28">
+        <v>1</v>
+      </c>
+      <c r="I35" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J35" s="73">
+        <f t="shared" si="1"/>
+        <v>45150</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="25"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="105"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="97"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+    </row>
+    <row r="36" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G36" s="52">
+        <v>1</v>
+      </c>
+      <c r="H36" s="37">
         <v>3</v>
       </c>
-      <c r="I32" s="95">
+      <c r="I36" s="74">
         <v>45150</v>
       </c>
-      <c r="J32" s="96">
+      <c r="J36" s="75">
         <f t="shared" si="1"/>
         <v>45153</v>
       </c>
-      <c r="K32" s="51" t="s">
+      <c r="K36" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="136"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="104"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
-    </row>
-    <row r="33" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11" t="s">
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="115"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="83"/>
+      <c r="AH36" s="95"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+    </row>
+    <row r="37" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="8" t="str">
+      <c r="E37" s="6"/>
+      <c r="F37" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G33" s="9">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="92">
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="71">
         <v>45150</v>
       </c>
-      <c r="J33" s="89">
+      <c r="J37" s="68">
         <f t="shared" si="1"/>
         <v>45151</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-    </row>
-    <row r="34" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11" t="s">
+      <c r="L37" s="6"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+    </row>
+    <row r="38" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="8" t="str">
+      <c r="F38" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G34" s="9">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1</v>
-      </c>
-      <c r="I34" s="92">
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="71">
         <v>45150</v>
       </c>
-      <c r="J34" s="89">
+      <c r="J38" s="68">
         <f t="shared" si="1"/>
         <v>45151</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K38" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="137"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-    </row>
-    <row r="35" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>완료</v>
-      </c>
-      <c r="G35" s="9">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="92">
-        <v>45151</v>
-      </c>
-      <c r="J35" s="89">
-        <f t="shared" si="1"/>
-        <v>45152</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="137"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-    </row>
-    <row r="36" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>완료</v>
-      </c>
-      <c r="G36" s="9">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5">
-        <v>2</v>
-      </c>
-      <c r="I36" s="92">
-        <v>45152</v>
-      </c>
-      <c r="J36" s="89">
-        <f t="shared" si="1"/>
-        <v>45154</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="112"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="58"/>
-      <c r="AA36" s="127"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-    </row>
-    <row r="37" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>완료</v>
-      </c>
-      <c r="G37" s="15">
-        <v>1</v>
-      </c>
-      <c r="H37" s="16">
-        <v>2</v>
-      </c>
-      <c r="I37" s="97">
-        <v>45152</v>
-      </c>
-      <c r="J37" s="90">
-        <f t="shared" si="1"/>
-        <v>45154</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="128"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="61"/>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="16"/>
-      <c r="AK37" s="16"/>
-      <c r="AL37" s="16"/>
-      <c r="AM37" s="16"/>
-      <c r="AN37" s="16"/>
-    </row>
-    <row r="38" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>완료</v>
-      </c>
-      <c r="G38" s="56">
-        <v>1</v>
-      </c>
-      <c r="H38" s="39">
-        <v>5</v>
-      </c>
-      <c r="I38" s="98">
-        <v>45154</v>
-      </c>
-      <c r="J38" s="99">
-        <f t="shared" si="1"/>
-        <v>45159</v>
-      </c>
-      <c r="K38" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="124"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="125"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="129"/>
-      <c r="AH38" s="117"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
-      <c r="AM38" s="18"/>
-      <c r="AN38" s="18"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="116"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="58"/>
+      <c r="AH38" s="60"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
     </row>
     <row r="39" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="F39" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
@@ -3736,14 +3744,14 @@
         <v>1</v>
       </c>
       <c r="H39" s="5">
-        <v>3</v>
-      </c>
-      <c r="I39" s="92">
-        <v>45154</v>
-      </c>
-      <c r="J39" s="89">
+        <v>1</v>
+      </c>
+      <c r="I39" s="71">
+        <v>45151</v>
+      </c>
+      <c r="J39" s="68">
         <f t="shared" si="1"/>
-        <v>45157</v>
+        <v>45152</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>53</v>
@@ -3755,20 +3763,20 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-      <c r="S39" s="112"/>
+      <c r="S39" s="91"/>
       <c r="T39" s="11"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="58"/>
-      <c r="AA39" s="11"/>
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="106"/>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="38"/>
-      <c r="AD39" s="38"/>
-      <c r="AE39" s="38"/>
-      <c r="AF39" s="38"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
       <c r="AG39" s="58"/>
       <c r="AH39" s="60"/>
       <c r="AI39" s="5"/>
@@ -3780,13 +3788,13 @@
     </row>
     <row r="40" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="D40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
@@ -3795,14 +3803,14 @@
         <v>1</v>
       </c>
       <c r="H40" s="5">
-        <v>1</v>
-      </c>
-      <c r="I40" s="92">
+        <v>2</v>
+      </c>
+      <c r="I40" s="71">
+        <v>45152</v>
+      </c>
+      <c r="J40" s="68">
+        <f t="shared" si="1"/>
         <v>45154</v>
-      </c>
-      <c r="J40" s="89">
-        <f t="shared" si="1"/>
-        <v>45155</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>53</v>
@@ -3814,7 +3822,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-      <c r="S40" s="112"/>
+      <c r="S40" s="91"/>
       <c r="T40" s="11"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
@@ -3822,10 +3830,10 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="58"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
+      <c r="AA40" s="106"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="58"/>
@@ -3837,133 +3845,133 @@
       <c r="AM40" s="5"/>
       <c r="AN40" s="5"/>
     </row>
-    <row r="41" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="8" t="str">
+    <row r="41" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="14" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="92">
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="16">
+        <v>2</v>
+      </c>
+      <c r="I41" s="76">
+        <v>45152</v>
+      </c>
+      <c r="J41" s="69">
+        <f t="shared" si="1"/>
         <v>45154</v>
       </c>
-      <c r="J41" s="89">
-        <f t="shared" si="1"/>
-        <v>45155</v>
-      </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="38"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="58"/>
-      <c r="AH41" s="60"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
     </row>
     <row r="42" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="8" t="str">
+      <c r="B42" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G42" s="9">
-        <v>1</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1</v>
-      </c>
-      <c r="I42" s="92">
+      <c r="G42" s="56">
+        <v>1</v>
+      </c>
+      <c r="H42" s="39">
+        <v>5</v>
+      </c>
+      <c r="I42" s="77">
         <v>45154</v>
       </c>
-      <c r="J42" s="89">
+      <c r="J42" s="78">
         <f t="shared" si="1"/>
-        <v>45155</v>
-      </c>
-      <c r="K42" s="8" t="s">
+        <v>45159</v>
+      </c>
+      <c r="K42" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="112"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="58"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="58"/>
-      <c r="AH42" s="60"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="103"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="103"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="39"/>
+      <c r="AG42" s="108"/>
+      <c r="AH42" s="96"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="18"/>
     </row>
     <row r="43" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="D43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
@@ -3972,14 +3980,14 @@
         <v>1</v>
       </c>
       <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="92">
+        <v>3</v>
+      </c>
+      <c r="I43" s="71">
         <v>45154</v>
       </c>
-      <c r="J43" s="89">
+      <c r="J43" s="68">
         <f t="shared" si="1"/>
-        <v>45155</v>
+        <v>45157</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>53</v>
@@ -3991,7 +3999,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-      <c r="S43" s="112"/>
+      <c r="S43" s="91"/>
       <c r="T43" s="11"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -4003,8 +4011,8 @@
       <c r="AB43" s="5"/>
       <c r="AC43" s="38"/>
       <c r="AD43" s="38"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
       <c r="AG43" s="58"/>
       <c r="AH43" s="60"/>
       <c r="AI43" s="5"/>
@@ -4016,12 +4024,12 @@
     </row>
     <row r="44" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" si="2"/>
@@ -4031,14 +4039,14 @@
         <v>1</v>
       </c>
       <c r="H44" s="5">
-        <v>2</v>
-      </c>
-      <c r="I44" s="92">
+        <v>1</v>
+      </c>
+      <c r="I44" s="71">
+        <v>45154</v>
+      </c>
+      <c r="J44" s="68">
+        <f t="shared" si="1"/>
         <v>45155</v>
-      </c>
-      <c r="J44" s="89">
-        <f t="shared" si="1"/>
-        <v>45157</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>53</v>
@@ -4050,7 +4058,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="112"/>
+      <c r="S44" s="91"/>
       <c r="T44" s="11"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
@@ -4060,10 +4068,10 @@
       <c r="Z44" s="58"/>
       <c r="AA44" s="11"/>
       <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
+      <c r="AC44" s="38"/>
       <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
       <c r="AG44" s="58"/>
       <c r="AH44" s="60"/>
       <c r="AI44" s="5"/>
@@ -4075,13 +4083,13 @@
     </row>
     <row r="45" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="11" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="F45" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
@@ -4090,14 +4098,14 @@
         <v>1</v>
       </c>
       <c r="H45" s="5">
-        <v>2</v>
-      </c>
-      <c r="I45" s="92">
+        <v>1</v>
+      </c>
+      <c r="I45" s="71">
         <v>45154</v>
       </c>
-      <c r="J45" s="89">
+      <c r="J45" s="68">
         <f t="shared" si="1"/>
-        <v>45156</v>
+        <v>45155</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>53</v>
@@ -4109,7 +4117,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="112"/>
+      <c r="S45" s="91"/>
       <c r="T45" s="11"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
@@ -4121,7 +4129,7 @@
       <c r="AB45" s="5"/>
       <c r="AC45" s="38"/>
       <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
+      <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="58"/>
       <c r="AH45" s="60"/>
@@ -4134,12 +4142,12 @@
     </row>
     <row r="46" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="11" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F46" s="8" t="str">
         <f t="shared" si="2"/>
@@ -4149,14 +4157,14 @@
         <v>1</v>
       </c>
       <c r="H46" s="5">
-        <v>2</v>
-      </c>
-      <c r="I46" s="92">
+        <v>1</v>
+      </c>
+      <c r="I46" s="71">
         <v>45154</v>
       </c>
-      <c r="J46" s="89">
+      <c r="J46" s="68">
         <f t="shared" si="1"/>
-        <v>45156</v>
+        <v>45155</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>53</v>
@@ -4168,7 +4176,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-      <c r="S46" s="112"/>
+      <c r="S46" s="91"/>
       <c r="T46" s="11"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
@@ -4180,7 +4188,7 @@
       <c r="AB46" s="5"/>
       <c r="AC46" s="38"/>
       <c r="AD46" s="38"/>
-      <c r="AE46" s="38"/>
+      <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="58"/>
       <c r="AH46" s="60"/>
@@ -4193,12 +4201,12 @@
     </row>
     <row r="47" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="11" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F47" s="8" t="str">
         <f t="shared" si="2"/>
@@ -4208,14 +4216,14 @@
         <v>1</v>
       </c>
       <c r="H47" s="5">
-        <v>2</v>
-      </c>
-      <c r="I47" s="92">
+        <v>1</v>
+      </c>
+      <c r="I47" s="71">
         <v>45154</v>
       </c>
-      <c r="J47" s="89">
+      <c r="J47" s="68">
         <f t="shared" si="1"/>
-        <v>45156</v>
+        <v>45155</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>53</v>
@@ -4227,7 +4235,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-      <c r="S47" s="112"/>
+      <c r="S47" s="91"/>
       <c r="T47" s="11"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
@@ -4239,7 +4247,7 @@
       <c r="AB47" s="5"/>
       <c r="AC47" s="38"/>
       <c r="AD47" s="38"/>
-      <c r="AE47" s="38"/>
+      <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="60"/>
@@ -4252,12 +4260,12 @@
     </row>
     <row r="48" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F48" s="8" t="str">
         <f t="shared" si="2"/>
@@ -4269,12 +4277,12 @@
       <c r="H48" s="5">
         <v>2</v>
       </c>
-      <c r="I48" s="92">
-        <v>45154</v>
-      </c>
-      <c r="J48" s="89">
+      <c r="I48" s="71">
+        <v>45155</v>
+      </c>
+      <c r="J48" s="68">
         <f t="shared" si="1"/>
-        <v>45156</v>
+        <v>45157</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>53</v>
@@ -4286,7 +4294,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="112"/>
+      <c r="S48" s="91"/>
       <c r="T48" s="11"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
@@ -4296,10 +4304,10 @@
       <c r="Z48" s="58"/>
       <c r="AA48" s="11"/>
       <c r="AB48" s="5"/>
-      <c r="AC48" s="38"/>
+      <c r="AC48" s="5"/>
       <c r="AD48" s="38"/>
       <c r="AE48" s="38"/>
-      <c r="AF48" s="5"/>
+      <c r="AF48" s="38"/>
       <c r="AG48" s="58"/>
       <c r="AH48" s="60"/>
       <c r="AI48" s="5"/>
@@ -4311,13 +4319,13 @@
     </row>
     <row r="49" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="D49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="6"/>
       <c r="F49" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
@@ -4328,10 +4336,10 @@
       <c r="H49" s="5">
         <v>2</v>
       </c>
-      <c r="I49" s="92">
+      <c r="I49" s="71">
         <v>45154</v>
       </c>
-      <c r="J49" s="89">
+      <c r="J49" s="68">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
@@ -4345,7 +4353,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="112"/>
+      <c r="S49" s="91"/>
       <c r="T49" s="11"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
@@ -4370,13 +4378,13 @@
     </row>
     <row r="50" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="F50" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
@@ -4387,12 +4395,12 @@
       <c r="H50" s="5">
         <v>2</v>
       </c>
-      <c r="I50" s="92">
+      <c r="I50" s="71">
+        <v>45154</v>
+      </c>
+      <c r="J50" s="68">
+        <f t="shared" si="1"/>
         <v>45156</v>
-      </c>
-      <c r="J50" s="89">
-        <f t="shared" si="1"/>
-        <v>45158</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>53</v>
@@ -4404,7 +4412,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="112"/>
+      <c r="S50" s="91"/>
       <c r="T50" s="11"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
@@ -4414,11 +4422,11 @@
       <c r="Z50" s="58"/>
       <c r="AA50" s="11"/>
       <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
       <c r="AE50" s="38"/>
-      <c r="AF50" s="38"/>
-      <c r="AG50" s="130"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="58"/>
       <c r="AH50" s="60"/>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
@@ -4429,12 +4437,12 @@
     </row>
     <row r="51" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F51" s="8" t="str">
         <f t="shared" si="2"/>
@@ -4446,12 +4454,12 @@
       <c r="H51" s="5">
         <v>2</v>
       </c>
-      <c r="I51" s="92">
+      <c r="I51" s="71">
+        <v>45154</v>
+      </c>
+      <c r="J51" s="68">
+        <f t="shared" si="1"/>
         <v>45156</v>
-      </c>
-      <c r="J51" s="89">
-        <f t="shared" si="1"/>
-        <v>45158</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>53</v>
@@ -4463,7 +4471,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="112"/>
+      <c r="S51" s="91"/>
       <c r="T51" s="11"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
@@ -4473,11 +4481,11 @@
       <c r="Z51" s="58"/>
       <c r="AA51" s="11"/>
       <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
+      <c r="AC51" s="38"/>
+      <c r="AD51" s="38"/>
       <c r="AE51" s="38"/>
-      <c r="AF51" s="38"/>
-      <c r="AG51" s="130"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="58"/>
       <c r="AH51" s="60"/>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
@@ -4488,12 +4496,12 @@
     </row>
     <row r="52" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F52" s="8" t="str">
         <f t="shared" si="2"/>
@@ -4505,12 +4513,12 @@
       <c r="H52" s="5">
         <v>2</v>
       </c>
-      <c r="I52" s="92">
+      <c r="I52" s="71">
+        <v>45154</v>
+      </c>
+      <c r="J52" s="68">
+        <f t="shared" si="1"/>
         <v>45156</v>
-      </c>
-      <c r="J52" s="89">
-        <f t="shared" si="1"/>
-        <v>45158</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>53</v>
@@ -4522,7 +4530,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="112"/>
+      <c r="S52" s="91"/>
       <c r="T52" s="11"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
@@ -4532,11 +4540,11 @@
       <c r="Z52" s="58"/>
       <c r="AA52" s="11"/>
       <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
+      <c r="AC52" s="38"/>
+      <c r="AD52" s="38"/>
       <c r="AE52" s="38"/>
-      <c r="AF52" s="38"/>
-      <c r="AG52" s="130"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="58"/>
       <c r="AH52" s="60"/>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
@@ -4547,12 +4555,12 @@
     </row>
     <row r="53" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F53" s="8" t="str">
         <f t="shared" si="2"/>
@@ -4564,12 +4572,12 @@
       <c r="H53" s="5">
         <v>2</v>
       </c>
-      <c r="I53" s="92">
+      <c r="I53" s="71">
+        <v>45154</v>
+      </c>
+      <c r="J53" s="68">
+        <f t="shared" si="1"/>
         <v>45156</v>
-      </c>
-      <c r="J53" s="89">
-        <f t="shared" si="1"/>
-        <v>45158</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>53</v>
@@ -4581,7 +4589,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-      <c r="S53" s="112"/>
+      <c r="S53" s="91"/>
       <c r="T53" s="11"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
@@ -4591,11 +4599,11 @@
       <c r="Z53" s="58"/>
       <c r="AA53" s="11"/>
       <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
+      <c r="AC53" s="38"/>
+      <c r="AD53" s="38"/>
       <c r="AE53" s="38"/>
-      <c r="AF53" s="38"/>
-      <c r="AG53" s="130"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="58"/>
       <c r="AH53" s="60"/>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
@@ -4606,13 +4614,13 @@
     </row>
     <row r="54" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="D54" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="6"/>
       <c r="F54" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
@@ -4623,10 +4631,10 @@
       <c r="H54" s="5">
         <v>2</v>
       </c>
-      <c r="I54" s="92">
+      <c r="I54" s="71">
         <v>45156</v>
       </c>
-      <c r="J54" s="89">
+      <c r="J54" s="68">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
@@ -4640,7 +4648,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="112"/>
+      <c r="S54" s="91"/>
       <c r="T54" s="11"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
@@ -4654,7 +4662,7 @@
       <c r="AD54" s="5"/>
       <c r="AE54" s="38"/>
       <c r="AF54" s="38"/>
-      <c r="AG54" s="130"/>
+      <c r="AG54" s="109"/>
       <c r="AH54" s="60"/>
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
@@ -4665,13 +4673,13 @@
     </row>
     <row r="55" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="F55" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
@@ -4680,14 +4688,14 @@
         <v>1</v>
       </c>
       <c r="H55" s="5">
-        <v>1</v>
-      </c>
-      <c r="I55" s="92">
+        <v>2</v>
+      </c>
+      <c r="I55" s="71">
+        <v>45156</v>
+      </c>
+      <c r="J55" s="68">
+        <f t="shared" si="1"/>
         <v>45158</v>
-      </c>
-      <c r="J55" s="89">
-        <f t="shared" si="1"/>
-        <v>45159</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>53</v>
@@ -4699,7 +4707,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-      <c r="S55" s="112"/>
+      <c r="S55" s="91"/>
       <c r="T55" s="11"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
@@ -4711,10 +4719,10 @@
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="130"/>
-      <c r="AH55" s="119"/>
+      <c r="AE55" s="38"/>
+      <c r="AF55" s="38"/>
+      <c r="AG55" s="109"/>
+      <c r="AH55" s="60"/>
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
@@ -4722,151 +4730,151 @@
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
     </row>
-    <row r="56" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="F56" s="26" t="str">
+    <row r="56" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G56" s="27">
-        <v>1</v>
-      </c>
-      <c r="H56" s="28">
-        <v>1</v>
-      </c>
-      <c r="I56" s="93">
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2</v>
+      </c>
+      <c r="I56" s="71">
+        <v>45156</v>
+      </c>
+      <c r="J56" s="68">
+        <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="J56" s="94">
-        <f t="shared" si="1"/>
-        <v>45159</v>
-      </c>
-      <c r="K56" s="26" t="s">
+      <c r="K56" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L56" s="25"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="115"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="126"/>
-      <c r="AA56" s="24"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
-      <c r="AG56" s="131"/>
-      <c r="AH56" s="120"/>
-      <c r="AI56" s="28"/>
-      <c r="AJ56" s="28"/>
-      <c r="AK56" s="28"/>
-      <c r="AL56" s="28"/>
-      <c r="AM56" s="28"/>
-      <c r="AN56" s="28"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="91"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="58"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="38"/>
+      <c r="AF56" s="38"/>
+      <c r="AG56" s="109"/>
+      <c r="AH56" s="60"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
     </row>
     <row r="57" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="108" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="103" t="str">
+      <c r="B57" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G57" s="109">
-        <v>1</v>
-      </c>
-      <c r="H57" s="103">
-        <v>1</v>
-      </c>
-      <c r="I57" s="110">
-        <v>45159</v>
-      </c>
-      <c r="J57" s="110">
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>2</v>
+      </c>
+      <c r="I57" s="71">
+        <v>45156</v>
+      </c>
+      <c r="J57" s="68">
         <f t="shared" si="1"/>
-        <v>45160</v>
-      </c>
-      <c r="K57" s="103" t="s">
+        <v>45158</v>
+      </c>
+      <c r="K57" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L57" s="21"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="111"/>
-      <c r="T57" s="102"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="104"/>
-      <c r="AA57" s="102"/>
-      <c r="AB57" s="22"/>
-      <c r="AC57" s="22"/>
-      <c r="AD57" s="22"/>
-      <c r="AE57" s="22"/>
-      <c r="AF57" s="22"/>
-      <c r="AG57" s="104"/>
-      <c r="AH57" s="121"/>
-      <c r="AI57" s="103"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="22"/>
-      <c r="AL57" s="22"/>
-      <c r="AM57" s="22"/>
-      <c r="AN57" s="104"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="91"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="58"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="38"/>
+      <c r="AF57" s="38"/>
+      <c r="AG57" s="109"/>
+      <c r="AH57" s="60"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
     </row>
     <row r="58" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="11" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="5" t="str">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G58" s="100">
+      <c r="G58" s="9">
         <v>1</v>
       </c>
       <c r="H58" s="5">
-        <v>1</v>
-      </c>
-      <c r="I58" s="92">
-        <v>45159</v>
-      </c>
-      <c r="J58" s="92">
+        <v>2</v>
+      </c>
+      <c r="I58" s="71">
+        <v>45156</v>
+      </c>
+      <c r="J58" s="68">
         <f t="shared" si="1"/>
-        <v>45160</v>
-      </c>
-      <c r="K58" s="5" t="s">
+        <v>45158</v>
+      </c>
+      <c r="K58" s="8" t="s">
         <v>53</v>
       </c>
       <c r="L58" s="6"/>
@@ -4876,7 +4884,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-      <c r="S58" s="112"/>
+      <c r="S58" s="91"/>
       <c r="T58" s="11"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
@@ -4888,84 +4896,319 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="58"/>
-      <c r="AH58" s="122"/>
-      <c r="AI58" s="101"/>
+      <c r="AE58" s="38"/>
+      <c r="AF58" s="38"/>
+      <c r="AG58" s="109"/>
+      <c r="AH58" s="60"/>
+      <c r="AI58" s="5"/>
       <c r="AJ58" s="5"/>
       <c r="AK58" s="5"/>
       <c r="AL58" s="5"/>
       <c r="AM58" s="5"/>
-      <c r="AN58" s="58"/>
-    </row>
-    <row r="59" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F59" s="16" t="str">
+      <c r="AN58" s="5"/>
+    </row>
+    <row r="59" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="8" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G59" s="105">
-        <v>1</v>
-      </c>
-      <c r="H59" s="16">
-        <v>1</v>
-      </c>
-      <c r="I59" s="97">
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1</v>
+      </c>
+      <c r="I59" s="71">
+        <v>45158</v>
+      </c>
+      <c r="J59" s="68">
+        <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="J59" s="97">
+      <c r="K59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="91"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="58"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="109"/>
+      <c r="AH59" s="98"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+    </row>
+    <row r="60" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G60" s="27">
+        <v>1</v>
+      </c>
+      <c r="H60" s="28">
+        <v>1</v>
+      </c>
+      <c r="I60" s="72">
+        <v>45158</v>
+      </c>
+      <c r="J60" s="73">
+        <f t="shared" si="1"/>
+        <v>45159</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L60" s="25"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="94"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="105"/>
+      <c r="AA60" s="24"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="110"/>
+      <c r="AH60" s="99"/>
+      <c r="AI60" s="28"/>
+      <c r="AJ60" s="28"/>
+      <c r="AK60" s="28"/>
+      <c r="AL60" s="28"/>
+      <c r="AM60" s="28"/>
+      <c r="AN60" s="28"/>
+    </row>
+    <row r="61" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="82" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G61" s="88">
+        <v>1</v>
+      </c>
+      <c r="H61" s="82">
+        <v>1</v>
+      </c>
+      <c r="I61" s="89">
+        <v>45159</v>
+      </c>
+      <c r="J61" s="89">
         <f t="shared" si="1"/>
         <v>45160</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="K61" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="113"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-      <c r="Y59" s="16"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="12"/>
-      <c r="AB59" s="16"/>
-      <c r="AC59" s="16"/>
-      <c r="AD59" s="16"/>
-      <c r="AE59" s="16"/>
-      <c r="AF59" s="16"/>
-      <c r="AG59" s="59"/>
-      <c r="AH59" s="123"/>
-      <c r="AI59" s="106"/>
-      <c r="AJ59" s="16"/>
-      <c r="AK59" s="16"/>
-      <c r="AL59" s="16"/>
-      <c r="AM59" s="16"/>
-      <c r="AN59" s="59"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="90"/>
+      <c r="T61" s="81"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="83"/>
+      <c r="AA61" s="81"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="83"/>
+      <c r="AH61" s="100"/>
+      <c r="AI61" s="82"/>
+      <c r="AJ61" s="22"/>
+      <c r="AK61" s="22"/>
+      <c r="AL61" s="22"/>
+      <c r="AM61" s="22"/>
+      <c r="AN61" s="83"/>
+    </row>
+    <row r="62" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G62" s="79">
+        <v>1</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1</v>
+      </c>
+      <c r="I62" s="71">
+        <v>45159</v>
+      </c>
+      <c r="J62" s="71">
+        <f t="shared" si="1"/>
+        <v>45160</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" s="6"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="91"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="58"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="58"/>
+      <c r="AH62" s="101"/>
+      <c r="AI62" s="80"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="58"/>
+    </row>
+    <row r="63" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B63" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G63" s="84">
+        <v>1</v>
+      </c>
+      <c r="H63" s="16">
+        <v>1</v>
+      </c>
+      <c r="I63" s="76">
+        <v>45159</v>
+      </c>
+      <c r="J63" s="76">
+        <f t="shared" si="1"/>
+        <v>45160</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63" s="13"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="92"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="59"/>
+      <c r="AH63" s="102"/>
+      <c r="AI63" s="85"/>
+      <c r="AJ63" s="16"/>
+      <c r="AK63" s="16"/>
+      <c r="AL63" s="16"/>
+      <c r="AM63" s="16"/>
+      <c r="AN63" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="M10:AN10"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="I10:I12"/>
@@ -4976,11 +5219,12 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WBS양식.xlsx
+++ b/documents/WBS양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsdp\Desktop\github\project01\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E88E09-C58A-4691-B4CB-331D6C383A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BA9B9F-F32A-47F2-B23C-BFB5B80CD5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,10 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. 회사소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.1 오시는 길</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,27 +555,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2.3 관리자페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1 회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2 고객지원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3 커뮤니티 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FUR-046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FUR-047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3 관리자페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.1 회원 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.2 고객지원 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.3 커뮤니티 관리</t>
+  </si>
+  <si>
+    <t>FUR-048</t>
+  </si>
+  <si>
+    <t>FUR-049</t>
+  </si>
+  <si>
+    <t>5.1 회사 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.2 회사 소개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,16 +1149,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1168,9 +1177,6 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1189,20 +1195,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1489,6 +1486,48 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,50 +1546,83 @@
     <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1867,3348 +1939,3467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BU63"/>
+  <dimension ref="B1:BU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.75" style="4"/>
-    <col min="9" max="10" width="8.75" style="65"/>
-    <col min="11" max="11" width="8.75" style="4"/>
+    <col min="6" max="8" width="8.75" style="3"/>
+    <col min="9" max="10" width="8.75" style="60"/>
+    <col min="11" max="11" width="8.75" style="3"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
-    <col min="13" max="72" width="4.75" style="4" customWidth="1"/>
+    <col min="13" max="72" width="4.75" style="3" customWidth="1"/>
     <col min="73" max="73" width="4.75" style="1" customWidth="1"/>
     <col min="74" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="66"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="122">
+      <c r="C3" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="131">
         <v>45137</v>
       </c>
       <c r="E3" s="123"/>
     </row>
     <row r="4" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="131">
         <v>45160</v>
       </c>
       <c r="E4" s="123"/>
     </row>
     <row r="5" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="132" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="123"/>
     </row>
     <row r="6" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="131">
+      <c r="D6" s="122">
         <v>45140</v>
       </c>
       <c r="E6" s="123"/>
     </row>
     <row r="7" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="133"/>
+      <c r="E7" s="125"/>
     </row>
     <row r="8" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="2:73" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="117" t="s">
+    <row r="10" spans="2:73" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="125" t="s">
+      <c r="H10" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="128" t="s">
+      <c r="I10" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="128" t="s">
+      <c r="J10" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="125" t="s">
+      <c r="K10" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="135" t="s">
+      <c r="M10" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="136"/>
-      <c r="Q10" s="136"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="136"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="136"/>
-      <c r="Y10" s="136"/>
-      <c r="Z10" s="136"/>
-      <c r="AA10" s="136"/>
-      <c r="AB10" s="136"/>
-      <c r="AC10" s="136"/>
-      <c r="AD10" s="136"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="136"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="136"/>
-      <c r="AI10" s="136"/>
-      <c r="AJ10" s="136"/>
-      <c r="AK10" s="136"/>
-      <c r="AL10" s="136"/>
-      <c r="AM10" s="136"/>
-      <c r="AN10" s="137"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
-      <c r="BF10" s="4"/>
-      <c r="BG10" s="4"/>
-      <c r="BH10" s="4"/>
-      <c r="BI10" s="4"/>
-      <c r="BJ10" s="4"/>
-      <c r="BK10" s="4"/>
-      <c r="BL10" s="4"/>
-      <c r="BM10" s="4"/>
-      <c r="BN10" s="4"/>
-      <c r="BO10" s="4"/>
-      <c r="BP10" s="4"/>
-      <c r="BQ10" s="4"/>
-      <c r="BR10" s="4"/>
-      <c r="BS10" s="4"/>
-      <c r="BT10" s="4"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="114"/>
+      <c r="AN10" s="115"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
       <c r="BU10" s="1"/>
     </row>
     <row r="11" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="118"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="2" t="s">
+      <c r="B11" s="127"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="134" t="s">
+      <c r="M11" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134" t="s">
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="134" t="s">
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="AB11" s="134"/>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="134"/>
-      <c r="AF11" s="134"/>
-      <c r="AG11" s="134"/>
-      <c r="AH11" s="134" t="s">
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="AI11" s="134"/>
-      <c r="AJ11" s="134"/>
-      <c r="AK11" s="134"/>
-      <c r="AL11" s="134"/>
-      <c r="AM11" s="134"/>
-      <c r="AN11" s="134"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="112"/>
+      <c r="AM11" s="112"/>
+      <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="2:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="119"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="19" t="s">
+      <c r="B12" s="128"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="T12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="V12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="W12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="X12" s="20" t="s">
+      <c r="X12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Y12" s="20" t="s">
+      <c r="Y12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="Z12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AA12" s="20" t="s">
+      <c r="AA12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AB12" s="20" t="s">
+      <c r="AB12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AC12" s="20" t="s">
+      <c r="AC12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AD12" s="20" t="s">
+      <c r="AD12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AE12" s="20" t="s">
+      <c r="AE12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AF12" s="20" t="s">
+      <c r="AF12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AG12" s="20" t="s">
+      <c r="AG12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AH12" s="20" t="s">
+      <c r="AH12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AI12" s="20" t="s">
+      <c r="AI12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AJ12" s="20" t="s">
+      <c r="AJ12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AK12" s="20" t="s">
+      <c r="AK12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AL12" s="20" t="s">
+      <c r="AL12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AM12" s="20" t="s">
+      <c r="AM12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AN12" s="20" t="s">
+      <c r="AN12" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43" t="str">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38" t="str">
         <f>IF(G13=1,"완료","진행중")</f>
         <v>완료</v>
       </c>
-      <c r="G13" s="44">
-        <v>1</v>
-      </c>
-      <c r="H13" s="43">
+      <c r="G13" s="39">
+        <v>1</v>
+      </c>
+      <c r="H13" s="38">
         <f>SUM(H14,H16,H18, H21, H23)</f>
         <v>11</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="62">
         <v>45137</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="62">
         <f>I13+H13</f>
         <v>45148</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
     </row>
     <row r="14" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="str">
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="str">
         <f t="shared" ref="F14:F25" si="0">IF(G14=1,"완료","진행중")</f>
         <v>완료</v>
       </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="63">
         <v>45137</v>
       </c>
-      <c r="J14" s="68">
-        <f t="shared" ref="J14:J63" si="1">I14+H14</f>
+      <c r="J14" s="63">
+        <f t="shared" ref="J14:J65" si="1">I14+H14</f>
         <v>45139</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
     </row>
     <row r="15" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="8" t="str">
+      <c r="F15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
         <v>2</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="63">
         <v>45137</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="63">
         <f t="shared" si="1"/>
         <v>45139</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
     </row>
     <row r="16" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="str">
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="68">
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="63">
         <v>45139</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="63">
         <f t="shared" si="1"/>
         <v>45140</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
     </row>
     <row r="17" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="8" t="str">
+      <c r="F17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="68">
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="63">
         <v>45139</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="63">
         <f t="shared" si="1"/>
         <v>45140</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
     </row>
     <row r="18" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8" t="str">
+      <c r="E18" s="5"/>
+      <c r="F18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="63">
         <v>45140</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="63">
         <f t="shared" si="1"/>
         <v>45144</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
     </row>
     <row r="19" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="8" t="str">
+      <c r="F19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="I19" s="68">
+      <c r="I19" s="63">
         <v>45140</v>
       </c>
-      <c r="J19" s="68">
+      <c r="J19" s="63">
         <f t="shared" si="1"/>
         <v>45144</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
     </row>
     <row r="20" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="8" t="str">
+      <c r="F20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
         <v>4</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="63">
         <v>45140</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="63">
         <f t="shared" si="1"/>
         <v>45144</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
     </row>
     <row r="21" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8" t="str">
+      <c r="E21" s="5"/>
+      <c r="F21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="68">
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="63">
         <v>45144</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="63">
         <f t="shared" si="1"/>
         <v>45145</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
     </row>
     <row r="22" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
-      <c r="I22" s="68">
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="63">
         <v>45144</v>
       </c>
-      <c r="J22" s="68">
+      <c r="J22" s="63">
         <f t="shared" si="1"/>
         <v>45145</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
     </row>
     <row r="23" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="str">
+      <c r="E23" s="5"/>
+      <c r="F23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
         <v>3</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="63">
         <v>45145</v>
       </c>
-      <c r="J23" s="68">
+      <c r="J23" s="63">
         <f t="shared" si="1"/>
         <v>45148</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
     </row>
     <row r="24" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="13" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="14" t="str">
+      <c r="F24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G24" s="15">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14">
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12">
         <v>3</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="64">
         <v>45145</v>
       </c>
-      <c r="J24" s="69">
+      <c r="J24" s="64">
         <f t="shared" si="1"/>
         <v>45148</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="54"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
     </row>
     <row r="25" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47" t="str">
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G25" s="48">
-        <v>1</v>
-      </c>
-      <c r="H25" s="47">
+      <c r="G25" s="43">
+        <v>1</v>
+      </c>
+      <c r="H25" s="42">
         <v>2</v>
       </c>
-      <c r="I25" s="70">
+      <c r="I25" s="65">
         <v>45148</v>
       </c>
-      <c r="J25" s="70">
+      <c r="J25" s="65">
         <f t="shared" si="1"/>
         <v>45150</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="104"/>
-      <c r="AH25" s="96"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="18"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="91"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
     </row>
     <row r="26" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8" t="str">
-        <f t="shared" ref="F26:F63" si="2">IF(G26=1,"완료","진행중")</f>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7" t="str">
+        <f t="shared" ref="F26:F65" si="2">IF(G26=1,"완료","진행중")</f>
         <v>완료</v>
       </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="68">
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="63">
         <v>45148</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="63">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
     </row>
     <row r="27" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="8" t="str">
+      <c r="F27" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="68">
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="63">
         <v>45148</v>
       </c>
-      <c r="J27" s="68">
+      <c r="J27" s="63">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
     </row>
     <row r="28" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="8" t="str">
+      <c r="F28" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-      <c r="I28" s="68">
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="63">
         <v>45148</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="63">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
     </row>
     <row r="29" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="8" t="str">
+      <c r="F29" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="71">
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="66">
         <v>45148</v>
       </c>
-      <c r="J29" s="68">
+      <c r="J29" s="63">
         <f t="shared" si="1"/>
         <v>45149</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
     </row>
     <row r="30" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="8" t="str">
+      <c r="E30" s="5"/>
+      <c r="F30" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="71">
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="66">
         <v>45149</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="63">
         <f t="shared" si="1"/>
         <v>45150</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
     </row>
     <row r="31" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="26" t="str">
+      <c r="F31" s="21" t="str">
         <f t="shared" ref="F31" si="3">IF(G31=1,"완료","진행중")</f>
         <v>완료</v>
       </c>
-      <c r="G31" s="27">
-        <v>1</v>
-      </c>
-      <c r="H31" s="28">
-        <v>1</v>
-      </c>
-      <c r="I31" s="72">
+      <c r="G31" s="22">
+        <v>1</v>
+      </c>
+      <c r="H31" s="23">
+        <v>1</v>
+      </c>
+      <c r="I31" s="67">
         <v>45149</v>
       </c>
-      <c r="J31" s="73">
+      <c r="J31" s="68">
         <f t="shared" ref="J31:J34" si="4">I31+H31</f>
         <v>45150</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="105"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="105"/>
-      <c r="AH31" s="97"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
     </row>
     <row r="32" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26" t="str">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G32" s="27">
-        <v>1</v>
-      </c>
-      <c r="H32" s="28">
-        <v>1</v>
-      </c>
-      <c r="I32" s="72">
+      <c r="G32" s="22">
+        <v>1</v>
+      </c>
+      <c r="H32" s="23">
+        <v>1</v>
+      </c>
+      <c r="I32" s="67">
         <v>45149</v>
       </c>
-      <c r="J32" s="73">
+      <c r="J32" s="68">
         <f t="shared" si="4"/>
         <v>45150</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="105"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="105"/>
-      <c r="AH32" s="97"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="23"/>
+      <c r="AN32" s="23"/>
     </row>
     <row r="33" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" s="26" t="str">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="21" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G33" s="27">
-        <v>1</v>
-      </c>
-      <c r="H33" s="28">
-        <v>1</v>
-      </c>
-      <c r="I33" s="72">
+      <c r="G33" s="22">
+        <v>1</v>
+      </c>
+      <c r="H33" s="23">
+        <v>1</v>
+      </c>
+      <c r="I33" s="67">
         <v>45149</v>
       </c>
-      <c r="J33" s="73">
+      <c r="J33" s="68">
         <f t="shared" si="4"/>
         <v>45150</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="25"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="105"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="105"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="28"/>
-      <c r="AN33" s="28"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="23"/>
     </row>
     <row r="34" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="26" t="str">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="21" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G34" s="27">
-        <v>1</v>
-      </c>
-      <c r="H34" s="28">
-        <v>1</v>
-      </c>
-      <c r="I34" s="72">
+      <c r="G34" s="22">
+        <v>1</v>
+      </c>
+      <c r="H34" s="23">
+        <v>1</v>
+      </c>
+      <c r="I34" s="67">
         <v>45149</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="68">
         <f t="shared" si="4"/>
         <v>45150</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="25"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="105"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="92"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
     </row>
     <row r="35" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="26" t="str">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="21" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G35" s="27">
-        <v>1</v>
-      </c>
-      <c r="H35" s="28">
-        <v>1</v>
-      </c>
-      <c r="I35" s="72">
+      <c r="G35" s="22">
+        <v>1</v>
+      </c>
+      <c r="H35" s="23">
+        <v>1</v>
+      </c>
+      <c r="I35" s="67">
         <v>45149</v>
       </c>
-      <c r="J35" s="73">
+      <c r="J35" s="68">
         <f t="shared" si="1"/>
         <v>45150</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="25"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="105"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="105"/>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
-      <c r="AK35" s="28"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28"/>
-      <c r="AN35" s="28"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="23"/>
+      <c r="AN35" s="23"/>
     </row>
     <row r="36" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51" t="str">
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="46" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G36" s="52">
-        <v>1</v>
-      </c>
-      <c r="H36" s="37">
+      <c r="G36" s="47">
+        <v>1</v>
+      </c>
+      <c r="H36" s="32">
         <v>3</v>
       </c>
-      <c r="I36" s="74">
+      <c r="I36" s="69">
         <v>45150</v>
       </c>
-      <c r="J36" s="75">
+      <c r="J36" s="70">
         <f t="shared" si="1"/>
         <v>45153</v>
       </c>
-      <c r="K36" s="51" t="s">
+      <c r="K36" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="115"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="83"/>
-      <c r="AH36" s="95"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
+      <c r="L36" s="141"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="78"/>
+      <c r="AH36" s="90"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
     </row>
     <row r="37" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="8" t="str">
+      <c r="E37" s="5"/>
+      <c r="F37" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G37" s="9">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37" s="71">
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="66">
         <v>45150</v>
       </c>
-      <c r="J37" s="68">
+      <c r="J37" s="63">
         <f t="shared" si="1"/>
         <v>45151</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="111"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
     </row>
     <row r="38" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="8" t="str">
+      <c r="F38" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
-      <c r="H38" s="5">
-        <v>1</v>
-      </c>
-      <c r="I38" s="71">
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="66">
         <v>45150</v>
       </c>
-      <c r="J38" s="68">
+      <c r="J38" s="63">
         <f t="shared" si="1"/>
         <v>45151</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="116"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="58"/>
-      <c r="AH38" s="60"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
+      <c r="L38" s="142"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
     </row>
     <row r="39" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="8" t="str">
+      <c r="F39" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1</v>
-      </c>
-      <c r="I39" s="71">
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="66">
         <v>45151</v>
       </c>
-      <c r="J39" s="68">
+      <c r="J39" s="63">
         <f t="shared" si="1"/>
         <v>45152</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="116"/>
-      <c r="AA39" s="106"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="58"/>
-      <c r="AH39" s="60"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="101"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
     </row>
     <row r="40" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="8" t="str">
+      <c r="E40" s="5"/>
+      <c r="F40" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G40" s="9">
-        <v>1</v>
-      </c>
-      <c r="H40" s="5">
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
         <v>2</v>
       </c>
-      <c r="I40" s="71">
+      <c r="I40" s="66">
         <v>45152</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="63">
         <f t="shared" si="1"/>
         <v>45154</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="58"/>
-      <c r="AA40" s="106"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="58"/>
-      <c r="AH40" s="60"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="101"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="53"/>
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
     </row>
     <row r="41" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="14" t="str">
+      <c r="F41" s="12" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G41" s="15">
-        <v>1</v>
-      </c>
-      <c r="H41" s="16">
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14">
         <v>2</v>
       </c>
-      <c r="I41" s="76">
+      <c r="I41" s="71">
         <v>45152</v>
       </c>
-      <c r="J41" s="69">
+      <c r="J41" s="64">
         <f t="shared" si="1"/>
         <v>45154</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="107"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="61"/>
-      <c r="AI41" s="16"/>
-      <c r="AJ41" s="16"/>
-      <c r="AK41" s="16"/>
-      <c r="AL41" s="16"/>
-      <c r="AM41" s="16"/>
-      <c r="AN41" s="16"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="102"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="56"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
     </row>
     <row r="42" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55" t="str">
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G42" s="56">
-        <v>1</v>
-      </c>
-      <c r="H42" s="39">
+      <c r="G42" s="51">
+        <v>1</v>
+      </c>
+      <c r="H42" s="34">
         <v>5</v>
       </c>
-      <c r="I42" s="77">
+      <c r="I42" s="72">
         <v>45154</v>
       </c>
-      <c r="J42" s="78">
+      <c r="J42" s="73">
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K42" s="55" t="s">
+      <c r="K42" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="103"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="108"/>
-      <c r="AH42" s="96"/>
-      <c r="AI42" s="18"/>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AN42" s="18"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="98"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="99"/>
+      <c r="AA42" s="98"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="103"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="15"/>
+      <c r="AL42" s="15"/>
+      <c r="AM42" s="15"/>
+      <c r="AN42" s="15"/>
     </row>
     <row r="43" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="8" t="str">
+      <c r="E43" s="5"/>
+      <c r="F43" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
         <v>3</v>
       </c>
-      <c r="I43" s="71">
+      <c r="I43" s="66">
         <v>45154</v>
       </c>
-      <c r="J43" s="68">
+      <c r="J43" s="63">
         <f t="shared" si="1"/>
         <v>45157</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="91"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="58"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
-      <c r="AF43" s="38"/>
-      <c r="AG43" s="58"/>
-      <c r="AH43" s="60"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="33"/>
+      <c r="AF43" s="33"/>
+      <c r="AG43" s="53"/>
+      <c r="AH43" s="55"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
     </row>
     <row r="44" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="8" t="str">
+      <c r="F44" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G44" s="9">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1</v>
-      </c>
-      <c r="I44" s="71">
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="66">
         <v>45154</v>
       </c>
-      <c r="J44" s="68">
+      <c r="J44" s="63">
         <f t="shared" si="1"/>
         <v>45155</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="91"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="58"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="58"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="33"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="53"/>
+      <c r="AH44" s="55"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
     </row>
     <row r="45" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="8" t="str">
+      <c r="F45" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G45" s="9">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-      <c r="I45" s="71">
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="66">
         <v>45154</v>
       </c>
-      <c r="J45" s="68">
+      <c r="J45" s="63">
         <f t="shared" si="1"/>
         <v>45155</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="91"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="58"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="58"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
+      <c r="L45" s="142"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="86"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="33"/>
+      <c r="AD45" s="33"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="53"/>
+      <c r="AH45" s="55"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
     </row>
     <row r="46" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="8" t="str">
+      <c r="F46" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G46" s="9">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5">
-        <v>1</v>
-      </c>
-      <c r="I46" s="71">
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="66">
         <v>45154</v>
       </c>
-      <c r="J46" s="68">
+      <c r="J46" s="63">
         <f t="shared" si="1"/>
         <v>45155</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="91"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="58"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="38"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="58"/>
-      <c r="AH46" s="60"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
+      <c r="L46" s="142"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="86"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="33"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="53"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
     </row>
     <row r="47" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="8" t="str">
+      <c r="F47" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5">
-        <v>1</v>
-      </c>
-      <c r="I47" s="71">
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="66">
         <v>45154</v>
       </c>
-      <c r="J47" s="68">
+      <c r="J47" s="63">
         <f t="shared" si="1"/>
         <v>45155</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="91"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="58"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="38"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="58"/>
-      <c r="AH47" s="60"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="33"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="55"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4"/>
     </row>
     <row r="48" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F48" s="8" t="str">
+      <c r="F48" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G48" s="9">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5">
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
         <v>2</v>
       </c>
-      <c r="I48" s="71">
+      <c r="I48" s="66">
         <v>45155</v>
       </c>
-      <c r="J48" s="68">
+      <c r="J48" s="63">
         <f t="shared" si="1"/>
         <v>45157</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="91"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="58"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="38"/>
-      <c r="AE48" s="38"/>
-      <c r="AF48" s="38"/>
-      <c r="AG48" s="58"/>
-      <c r="AH48" s="60"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="86"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="33"/>
+      <c r="AE48" s="33"/>
+      <c r="AF48" s="33"/>
+      <c r="AG48" s="53"/>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
     </row>
     <row r="49" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="8" t="str">
+      <c r="E49" s="5"/>
+      <c r="F49" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G49" s="9">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5">
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
         <v>2</v>
       </c>
-      <c r="I49" s="71">
+      <c r="I49" s="66">
         <v>45154</v>
       </c>
-      <c r="J49" s="68">
+      <c r="J49" s="63">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="K49" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="91"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="58"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="38"/>
-      <c r="AD49" s="38"/>
-      <c r="AE49" s="38"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="60"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
+      <c r="L49" s="142"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="86"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="53"/>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
     </row>
     <row r="50" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="8" t="str">
+      <c r="F50" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G50" s="9">
-        <v>1</v>
-      </c>
-      <c r="H50" s="5">
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
         <v>2</v>
       </c>
-      <c r="I50" s="71">
+      <c r="I50" s="66">
         <v>45154</v>
       </c>
-      <c r="J50" s="68">
+      <c r="J50" s="63">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="91"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="58"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="38"/>
-      <c r="AE50" s="38"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="60"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
+      <c r="L50" s="142"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="86"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="33"/>
+      <c r="AE50" s="33"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="53"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
     </row>
     <row r="51" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="8" t="str">
+      <c r="F51" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G51" s="9">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5">
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
         <v>2</v>
       </c>
-      <c r="I51" s="71">
+      <c r="I51" s="66">
         <v>45154</v>
       </c>
-      <c r="J51" s="68">
+      <c r="J51" s="63">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="91"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="58"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="38"/>
-      <c r="AD51" s="38"/>
-      <c r="AE51" s="38"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="60"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
+      <c r="L51" s="142"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="86"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="33"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="53"/>
+      <c r="AH51" s="55"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
     </row>
     <row r="52" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="8" t="str">
+      <c r="F52" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G52" s="9">
-        <v>1</v>
-      </c>
-      <c r="H52" s="5">
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
         <v>2</v>
       </c>
-      <c r="I52" s="71">
+      <c r="I52" s="66">
         <v>45154</v>
       </c>
-      <c r="J52" s="68">
+      <c r="J52" s="63">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
-      <c r="K52" s="8" t="s">
+      <c r="K52" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="91"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="58"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="38"/>
-      <c r="AD52" s="38"/>
-      <c r="AE52" s="38"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="58"/>
-      <c r="AH52" s="60"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
+      <c r="L52" s="142"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="53"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="53"/>
+      <c r="AH52" s="55"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
     </row>
     <row r="53" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="8" t="str">
+      <c r="F53" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G53" s="9">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5">
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
         <v>2</v>
       </c>
-      <c r="I53" s="71">
+      <c r="I53" s="66">
         <v>45154</v>
       </c>
-      <c r="J53" s="68">
+      <c r="J53" s="63">
         <f t="shared" si="1"/>
         <v>45156</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="K53" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="91"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="58"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="38"/>
-      <c r="AD53" s="38"/>
-      <c r="AE53" s="38"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="58"/>
-      <c r="AH53" s="60"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
+      <c r="L53" s="142"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="53"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="53"/>
+      <c r="AH53" s="55"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
     </row>
     <row r="54" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="8" t="str">
+      <c r="E54" s="5"/>
+      <c r="F54" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G54" s="9">
-        <v>1</v>
-      </c>
-      <c r="H54" s="5">
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4">
         <v>2</v>
       </c>
-      <c r="I54" s="71">
+      <c r="I54" s="66">
         <v>45156</v>
       </c>
-      <c r="J54" s="68">
+      <c r="J54" s="63">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L54" s="6"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="91"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="58"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="38"/>
-      <c r="AF54" s="38"/>
-      <c r="AG54" s="109"/>
-      <c r="AH54" s="60"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
+      <c r="L54" s="142"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="86"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="33"/>
+      <c r="AG54" s="104"/>
+      <c r="AH54" s="55"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
     </row>
     <row r="55" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="8" t="str">
+      <c r="F55" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G55" s="9">
-        <v>1</v>
-      </c>
-      <c r="H55" s="5">
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
         <v>2</v>
       </c>
-      <c r="I55" s="71">
+      <c r="I55" s="66">
         <v>45156</v>
       </c>
-      <c r="J55" s="68">
+      <c r="J55" s="63">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="91"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="58"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="38"/>
-      <c r="AF55" s="38"/>
-      <c r="AG55" s="109"/>
-      <c r="AH55" s="60"/>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="5"/>
-      <c r="AK55" s="5"/>
-      <c r="AL55" s="5"/>
-      <c r="AM55" s="5"/>
-      <c r="AN55" s="5"/>
+      <c r="L55" s="142"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="86"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="53"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="104"/>
+      <c r="AH55" s="55"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="4"/>
     </row>
     <row r="56" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F56" s="8" t="str">
+      <c r="F56" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G56" s="9">
-        <v>1</v>
-      </c>
-      <c r="H56" s="5">
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
         <v>2</v>
       </c>
-      <c r="I56" s="71">
+      <c r="I56" s="66">
         <v>45156</v>
       </c>
-      <c r="J56" s="68">
+      <c r="J56" s="63">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L56" s="6"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="91"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="58"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="38"/>
-      <c r="AF56" s="38"/>
-      <c r="AG56" s="109"/>
-      <c r="AH56" s="60"/>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="5"/>
-      <c r="AN56" s="5"/>
+      <c r="L56" s="142"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="86"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="33"/>
+      <c r="AG56" s="104"/>
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="4"/>
     </row>
     <row r="57" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="8" t="str">
+      <c r="F57" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G57" s="9">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5">
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
         <v>2</v>
       </c>
-      <c r="I57" s="71">
+      <c r="I57" s="66">
         <v>45156</v>
       </c>
-      <c r="J57" s="68">
+      <c r="J57" s="63">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="91"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="58"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="38"/>
-      <c r="AF57" s="38"/>
-      <c r="AG57" s="109"/>
-      <c r="AH57" s="60"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
-      <c r="AL57" s="5"/>
-      <c r="AM57" s="5"/>
-      <c r="AN57" s="5"/>
+      <c r="L57" s="142"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="86"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="53"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="33"/>
+      <c r="AG57" s="104"/>
+      <c r="AH57" s="55"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="4"/>
     </row>
     <row r="58" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="8" t="str">
+      <c r="F58" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G58" s="9">
-        <v>1</v>
-      </c>
-      <c r="H58" s="5">
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4">
         <v>2</v>
       </c>
-      <c r="I58" s="71">
+      <c r="I58" s="66">
         <v>45156</v>
       </c>
-      <c r="J58" s="68">
+      <c r="J58" s="63">
         <f t="shared" si="1"/>
         <v>45158</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L58" s="6"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="91"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="58"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="38"/>
-      <c r="AF58" s="38"/>
-      <c r="AG58" s="109"/>
-      <c r="AH58" s="60"/>
-      <c r="AI58" s="5"/>
-      <c r="AJ58" s="5"/>
-      <c r="AK58" s="5"/>
-      <c r="AL58" s="5"/>
-      <c r="AM58" s="5"/>
-      <c r="AN58" s="5"/>
+      <c r="L58" s="142"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="86"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="104"/>
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
     </row>
     <row r="59" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="8" t="str">
+      <c r="E59" s="5"/>
+      <c r="F59" s="7" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G59" s="9">
-        <v>1</v>
-      </c>
-      <c r="H59" s="5">
-        <v>1</v>
-      </c>
-      <c r="I59" s="71">
+      <c r="G59" s="8">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="66">
         <v>45158</v>
       </c>
-      <c r="J59" s="68">
+      <c r="J59" s="63">
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L59" s="6"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="91"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="58"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="109"/>
-      <c r="AH59" s="98"/>
-      <c r="AI59" s="5"/>
-      <c r="AJ59" s="5"/>
-      <c r="AK59" s="5"/>
-      <c r="AL59" s="5"/>
-      <c r="AM59" s="5"/>
-      <c r="AN59" s="5"/>
+      <c r="L59" s="142"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="86"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="104"/>
+      <c r="AH59" s="93"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="4"/>
     </row>
     <row r="60" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25" t="s">
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="F60" s="26" t="str">
+      <c r="F60" s="21" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G60" s="27">
-        <v>1</v>
-      </c>
-      <c r="H60" s="28">
-        <v>1</v>
-      </c>
-      <c r="I60" s="72">
+      <c r="G60" s="22">
+        <v>1</v>
+      </c>
+      <c r="H60" s="23">
+        <v>1</v>
+      </c>
+      <c r="I60" s="67">
         <v>45158</v>
       </c>
-      <c r="J60" s="73">
+      <c r="J60" s="68">
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K60" s="26" t="s">
+      <c r="K60" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="L60" s="25"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="94"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="105"/>
-      <c r="AA60" s="24"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="28"/>
-      <c r="AF60" s="28"/>
-      <c r="AG60" s="110"/>
-      <c r="AH60" s="99"/>
-      <c r="AI60" s="28"/>
-      <c r="AJ60" s="28"/>
-      <c r="AK60" s="28"/>
-      <c r="AL60" s="28"/>
-      <c r="AM60" s="28"/>
-      <c r="AN60" s="28"/>
+      <c r="L60" s="145"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="89"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="23"/>
+      <c r="Z60" s="100"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="23"/>
+      <c r="AC60" s="23"/>
+      <c r="AD60" s="23"/>
+      <c r="AE60" s="23"/>
+      <c r="AF60" s="23"/>
+      <c r="AG60" s="105"/>
+      <c r="AH60" s="94"/>
+      <c r="AI60" s="23"/>
+      <c r="AJ60" s="23"/>
+      <c r="AK60" s="23"/>
+      <c r="AL60" s="23"/>
+      <c r="AM60" s="23"/>
+      <c r="AN60" s="23"/>
     </row>
     <row r="61" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="82" t="str">
+      <c r="B61" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="77" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G61" s="88">
-        <v>1</v>
-      </c>
-      <c r="H61" s="82">
-        <v>1</v>
-      </c>
-      <c r="I61" s="89">
+      <c r="G61" s="83">
+        <v>1</v>
+      </c>
+      <c r="H61" s="77">
+        <v>2</v>
+      </c>
+      <c r="I61" s="84">
         <v>45159</v>
       </c>
-      <c r="J61" s="89">
+      <c r="J61" s="84">
+        <f t="shared" si="1"/>
+        <v>45161</v>
+      </c>
+      <c r="K61" s="156" t="s">
+        <v>53</v>
+      </c>
+      <c r="L61" s="141"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="85"/>
+      <c r="T61" s="76"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="78"/>
+      <c r="AA61" s="76"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="78"/>
+      <c r="AH61" s="95"/>
+      <c r="AI61" s="77"/>
+      <c r="AJ61" s="77"/>
+      <c r="AK61" s="17"/>
+      <c r="AL61" s="17"/>
+      <c r="AM61" s="17"/>
+      <c r="AN61" s="78"/>
+    </row>
+    <row r="62" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="136"/>
+      <c r="F62" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G62" s="74">
+        <v>1</v>
+      </c>
+      <c r="H62" s="137">
+        <v>1</v>
+      </c>
+      <c r="I62" s="66">
+        <v>45160</v>
+      </c>
+      <c r="J62" s="66">
+        <f t="shared" si="1"/>
+        <v>45161</v>
+      </c>
+      <c r="K62" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" s="144"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="98"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="99"/>
+      <c r="AA62" s="98"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="15"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="99"/>
+      <c r="AH62" s="134"/>
+      <c r="AI62" s="133"/>
+      <c r="AJ62" s="133"/>
+      <c r="AK62" s="15"/>
+      <c r="AL62" s="15"/>
+      <c r="AM62" s="15"/>
+      <c r="AN62" s="99"/>
+    </row>
+    <row r="63" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B63" s="135" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G63" s="74">
+        <v>1</v>
+      </c>
+      <c r="H63" s="137">
+        <v>1</v>
+      </c>
+      <c r="I63" s="66">
+        <v>45160</v>
+      </c>
+      <c r="J63" s="66">
+        <f t="shared" si="1"/>
+        <v>45161</v>
+      </c>
+      <c r="K63" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63" s="144"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="98"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="99"/>
+      <c r="AA63" s="98"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="99"/>
+      <c r="AH63" s="134"/>
+      <c r="AI63" s="133"/>
+      <c r="AJ63" s="133"/>
+      <c r="AK63" s="15"/>
+      <c r="AL63" s="15"/>
+      <c r="AM63" s="15"/>
+      <c r="AN63" s="99"/>
+    </row>
+    <row r="64" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>완료</v>
+      </c>
+      <c r="G64" s="74">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="66">
+        <v>45159</v>
+      </c>
+      <c r="J64" s="66">
         <f t="shared" si="1"/>
         <v>45160</v>
       </c>
-      <c r="K61" s="82" t="s">
+      <c r="K64" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="L61" s="21"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="90"/>
-      <c r="T61" s="81"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="83"/>
-      <c r="AA61" s="81"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="83"/>
-      <c r="AH61" s="100"/>
-      <c r="AI61" s="82"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="83"/>
-    </row>
-    <row r="62" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6" t="s">
+      <c r="L64" s="142"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="86"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="53"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="53"/>
+      <c r="AH64" s="96"/>
+      <c r="AI64" s="75"/>
+      <c r="AJ64" s="75"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="53"/>
+    </row>
+    <row r="65" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B65" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="5" t="str">
+      <c r="F65" s="14" t="str">
         <f t="shared" si="2"/>
         <v>완료</v>
       </c>
-      <c r="G62" s="79">
-        <v>1</v>
-      </c>
-      <c r="H62" s="5">
-        <v>1</v>
-      </c>
-      <c r="I62" s="71">
+      <c r="G65" s="79">
+        <v>1</v>
+      </c>
+      <c r="H65" s="14">
+        <v>1</v>
+      </c>
+      <c r="I65" s="71">
         <v>45159</v>
       </c>
-      <c r="J62" s="71">
+      <c r="J65" s="71">
         <f t="shared" si="1"/>
         <v>45160</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K65" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="L62" s="6"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="91"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="58"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="58"/>
-      <c r="AH62" s="101"/>
-      <c r="AI62" s="80"/>
-      <c r="AJ62" s="5"/>
-      <c r="AK62" s="5"/>
-      <c r="AL62" s="5"/>
-      <c r="AM62" s="5"/>
-      <c r="AN62" s="58"/>
-    </row>
-    <row r="63" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>완료</v>
-      </c>
-      <c r="G63" s="84">
-        <v>1</v>
-      </c>
-      <c r="H63" s="16">
-        <v>1</v>
-      </c>
-      <c r="I63" s="76">
-        <v>45159</v>
-      </c>
-      <c r="J63" s="76">
-        <f t="shared" si="1"/>
-        <v>45160</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L63" s="13"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="92"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="59"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="16"/>
-      <c r="AD63" s="16"/>
-      <c r="AE63" s="16"/>
-      <c r="AF63" s="16"/>
-      <c r="AG63" s="59"/>
-      <c r="AH63" s="102"/>
-      <c r="AI63" s="85"/>
-      <c r="AJ63" s="16"/>
-      <c r="AK63" s="16"/>
-      <c r="AL63" s="16"/>
-      <c r="AM63" s="16"/>
-      <c r="AN63" s="59"/>
+      <c r="L65" s="143"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="87"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="14"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="54"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="14"/>
+      <c r="AC65" s="14"/>
+      <c r="AD65" s="14"/>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="14"/>
+      <c r="AG65" s="54"/>
+      <c r="AH65" s="97"/>
+      <c r="AI65" s="80"/>
+      <c r="AJ65" s="80"/>
+      <c r="AK65" s="14"/>
+      <c r="AL65" s="14"/>
+      <c r="AM65" s="14"/>
+      <c r="AN65" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="I10:I12"/>
@@ -5219,12 +5410,11 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="M10:AN10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
